--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="23" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="24" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="Putz 206 APS" sheetId="30" r:id="rId30"/>
     <sheet name="Putz 207" sheetId="31" r:id="rId31"/>
     <sheet name="Putz 208" sheetId="32" r:id="rId32"/>
+    <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="125">
   <si>
     <t>Sr. No</t>
   </si>
@@ -314,13 +315,124 @@
   </si>
   <si>
     <t>151372120 (06-09-2023)</t>
+  </si>
+  <si>
+    <t>Active Components</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Dlink or Similar 8-Ports 10/100/1000Mbps PoE + 2-Ports SFP 100/1000Mbps Smart Managed Switch, 65Watts</t>
+  </si>
+  <si>
+    <t>Dlink or Similar 7 port Unmanged Switch with 4 x 10/100/1000 Base-T PoE+ Ports, 1 x 10/100/1000 Base-T Port &amp; 2 x 100/1000 Base-X SFP port.  -40°C~70°C (-40°F~158°F) Operating Temperature.</t>
+  </si>
+  <si>
+    <t>Dlink or Similar 1000Base-LX Single-Mode, 10KM SFP Transceiver</t>
+  </si>
+  <si>
+    <t>Dlink or Similar 1000Base-LX Single Mode SFP transceiver. 10 Km. -40° to 85° C operating temperature.</t>
+  </si>
+  <si>
+    <t>4 TB WD Purple Surveillance Hard Disk</t>
+  </si>
+  <si>
+    <t>32'' LED Display Samsung or Similar</t>
+  </si>
+  <si>
+    <t>SUB TOTAL (1)</t>
+  </si>
+  <si>
+    <t>Passive Components</t>
+  </si>
+  <si>
+    <t>Dlink or Similar Outdoor 6U Rack IP 55</t>
+  </si>
+  <si>
+    <t>Dlink or Similar Wall Mount Rack 6U x 550 W x 450 D, with Standard accessories</t>
+  </si>
+  <si>
+    <t>Dlink or Similar Patch Panel  UTP Keystone- 24 Port- Unloaded (Cat 5e,Cat 6 &amp; Cat 6 A )</t>
+  </si>
+  <si>
+    <t>Dlink or Similar Jack Cat 6 Keystone UTP - White</t>
+  </si>
+  <si>
+    <t>Cabling with CAT 6 Dlink cable with casing, cabling, laying</t>
+  </si>
+  <si>
+    <t>Dlink or Similar Dlink or Similar UTP Modular Plugs Pack of 100</t>
+  </si>
+  <si>
+    <t>Dlink or Similar CAT6 UTP 24AWG PATCH CORD:1M,Plug 30U' Snagless</t>
+  </si>
+  <si>
+    <t>Dlink or Similar O. F.Cable 06F Outdoor - Armoured Unitube SM - HDPE Sheath (qty in meters) with pulling/laying arially</t>
+  </si>
+  <si>
+    <t>Dlink or Similar LIU 12 Port Rack Mount - Loaded (SC) SM</t>
+  </si>
+  <si>
+    <t>Dlink or Similar LIU 6 PORT Rack Mount - Loaded</t>
+  </si>
+  <si>
+    <t>Dlink or Similar PIGTAIL SC SM SIMPLEX LENGTH- 1m</t>
+  </si>
+  <si>
+    <t>Dlink or Similar PATCH CORD LC-SC SM DUPLEX LENGTH- 1m</t>
+  </si>
+  <si>
+    <t>INSTALLATION TESTING COMMISSIONING for (1) and (2)</t>
+  </si>
+  <si>
+    <t>SUB TOTAL (2)</t>
+  </si>
+  <si>
+    <t>SUB TOTAL (1) + (2)</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>Note : Fiber Slicing per no to be charged @ 950/- per as actualls</t>
+  </si>
+  <si>
+    <t>Dlink 2 MP Day &amp; Night Fixed Outdoor Bullet Network Camera</t>
+  </si>
+  <si>
+    <t>Honeywell PTZ 4MP High Speed Dome Network Camera</t>
+  </si>
+  <si>
+    <t>Honeywell4 MP Day &amp; Night Varifocal Outdoor Bullet Network Camera</t>
+  </si>
+  <si>
+    <t>Dlink 32CH Network Video Recorder (NVR)</t>
+  </si>
+  <si>
+    <t>Dlink 7 port Unmanged Switch with 4 x 10/100/1000 Base-T PoE+ Ports, 1 x 10/100/1000 Base-T Port &amp; 2 x 100/1000 Base-X SFP port.  -40°C~70°C (-40°F~158°F) Operating Temperature.</t>
+  </si>
+  <si>
+    <t>Dlink 1000Base-LX Single-Mode, 10KM SFP Transceiver</t>
+  </si>
+  <si>
+    <t>Outdoor 6U Rack IP 55</t>
+  </si>
+  <si>
+    <t>Wall Mount Rack 6U x 550 W x 450 D, with Standard accessories</t>
+  </si>
+  <si>
+    <t>Dlink Patch Panel  UTP Keystone- 24 Port- Unloaded (Cat 5e,Cat 6 &amp; Cat 6 A )</t>
+  </si>
+  <si>
+    <t>Dlink CAT6 UTP 24AWG PATCH CORD:1M,Plug 30U' Snagless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +494,29 @@
       <color theme="1"/>
       <name val="Arial  "/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -391,7 +526,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -451,11 +586,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -606,6 +754,57 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5436,7 +5635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5582,6 +5781,1134 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="73.6640625" style="26" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="26"/>
+    <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="54">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="54">
+        <v>4</v>
+      </c>
+      <c r="D3" s="55">
+        <v>84690</v>
+      </c>
+      <c r="E3" s="55">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>338760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" customHeight="1">
+      <c r="A4" s="54">
+        <v>2</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="54">
+        <v>12</v>
+      </c>
+      <c r="D4" s="55">
+        <v>8400</v>
+      </c>
+      <c r="E4" s="55">
+        <f t="shared" si="0"/>
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.8" customHeight="1">
+      <c r="A5" s="54">
+        <v>3</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="54">
+        <v>4</v>
+      </c>
+      <c r="D5" s="55">
+        <v>24400</v>
+      </c>
+      <c r="E5" s="55">
+        <f t="shared" si="0"/>
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6">
+      <c r="A6" s="54">
+        <v>4</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="54">
+        <v>1</v>
+      </c>
+      <c r="D6" s="55">
+        <v>162400</v>
+      </c>
+      <c r="E6" s="55">
+        <f t="shared" si="0"/>
+        <v>162400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="49.2" customHeight="1">
+      <c r="A7" s="54">
+        <v>5</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="54">
+        <v>5</v>
+      </c>
+      <c r="D7" s="55">
+        <v>49400</v>
+      </c>
+      <c r="E7" s="55">
+        <f t="shared" si="0"/>
+        <v>247000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6">
+      <c r="A8" s="54">
+        <v>6</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="54">
+        <v>10</v>
+      </c>
+      <c r="D8" s="55">
+        <v>5990</v>
+      </c>
+      <c r="E8" s="55">
+        <f t="shared" si="0"/>
+        <v>59900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6">
+      <c r="A9" s="54">
+        <v>7</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="54">
+        <v>2</v>
+      </c>
+      <c r="D9" s="55">
+        <v>18380</v>
+      </c>
+      <c r="E9" s="55">
+        <f t="shared" si="0"/>
+        <v>36760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6">
+      <c r="A10" s="54">
+        <v>8</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="54">
+        <v>1</v>
+      </c>
+      <c r="D10" s="55">
+        <v>35990</v>
+      </c>
+      <c r="E10" s="55">
+        <f t="shared" si="0"/>
+        <v>35990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6">
+      <c r="A11" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59">
+        <f>SUM(E3:E10)</f>
+        <v>1079210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="1:5" ht="21">
+      <c r="A13" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="A14" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A15" s="54">
+        <v>1</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="54">
+        <v>4</v>
+      </c>
+      <c r="D15" s="55">
+        <v>24990</v>
+      </c>
+      <c r="E15" s="55">
+        <f t="shared" ref="E15:E27" si="1">C15*D15</f>
+        <v>99960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="A16" s="54">
+        <v>2</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="54">
+        <v>1</v>
+      </c>
+      <c r="D16" s="55">
+        <v>7600</v>
+      </c>
+      <c r="E16" s="55">
+        <f t="shared" si="1"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A17" s="54">
+        <v>3</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="54">
+        <v>1</v>
+      </c>
+      <c r="D17" s="55">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="55">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A18" s="54">
+        <v>4</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="54">
+        <v>36</v>
+      </c>
+      <c r="D18" s="55">
+        <v>180</v>
+      </c>
+      <c r="E18" s="55">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A19" s="54">
+        <v>5</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="54">
+        <v>60</v>
+      </c>
+      <c r="D19" s="55">
+        <v>80</v>
+      </c>
+      <c r="E19" s="55">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="54">
+        <v>6</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="54">
+        <v>1</v>
+      </c>
+      <c r="D20" s="55">
+        <v>400</v>
+      </c>
+      <c r="E20" s="55">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6">
+      <c r="A21" s="54">
+        <v>7</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="54">
+        <v>6</v>
+      </c>
+      <c r="D21" s="55">
+        <v>180</v>
+      </c>
+      <c r="E21" s="55">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="37.799999999999997" customHeight="1">
+      <c r="A22" s="54">
+        <v>8</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="54">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="55">
+        <v>120</v>
+      </c>
+      <c r="E22" s="55">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.2" customHeight="1">
+      <c r="A23" s="54">
+        <v>9</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="54">
+        <v>4</v>
+      </c>
+      <c r="D23" s="55">
+        <v>11160</v>
+      </c>
+      <c r="E23" s="55">
+        <f t="shared" si="1"/>
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A24" s="54">
+        <v>10</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="54">
+        <v>2</v>
+      </c>
+      <c r="D24" s="55">
+        <v>5800</v>
+      </c>
+      <c r="E24" s="55">
+        <f t="shared" si="1"/>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" customHeight="1">
+      <c r="A25" s="54">
+        <v>11</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="54">
+        <v>60</v>
+      </c>
+      <c r="D25" s="55">
+        <v>300</v>
+      </c>
+      <c r="E25" s="55">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="54">
+        <v>12</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="54">
+        <v>10</v>
+      </c>
+      <c r="D26" s="55">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="55">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.2" customHeight="1">
+      <c r="A27" s="54">
+        <v>13</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="54">
+        <v>1</v>
+      </c>
+      <c r="D27" s="55">
+        <v>150000</v>
+      </c>
+      <c r="E27" s="55">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6">
+      <c r="A28" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59">
+        <f>SUM(E15:E27)</f>
+        <v>717160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6">
+      <c r="A29" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59">
+        <f>E11+E28</f>
+        <v>1796370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6">
+      <c r="A30" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59">
+        <f>E29*9%</f>
+        <v>161673.29999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6">
+      <c r="A31" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59">
+        <f>E29*9%</f>
+        <v>161673.29999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6">
+      <c r="A32" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59">
+        <f>SUM(E29:E31)</f>
+        <v>2119716.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.6">
+      <c r="A34" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="60"/>
+    </row>
+    <row r="148" spans="1:5" ht="21">
+      <c r="A148" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="52"/>
+    </row>
+    <row r="149" spans="1:5" ht="15.6">
+      <c r="A149" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.6">
+      <c r="A150" s="54">
+        <v>1</v>
+      </c>
+      <c r="B150" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C150" s="54">
+        <v>4</v>
+      </c>
+      <c r="D150" s="55">
+        <v>84690</v>
+      </c>
+      <c r="E150" s="55">
+        <f t="shared" ref="E150:E159" si="2">C150*D150</f>
+        <v>338760</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="31.2">
+      <c r="A151" s="54">
+        <v>2</v>
+      </c>
+      <c r="B151" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="54">
+        <v>12</v>
+      </c>
+      <c r="D151" s="55">
+        <v>8400</v>
+      </c>
+      <c r="E151" s="55">
+        <f t="shared" si="2"/>
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="31.2">
+      <c r="A152" s="54">
+        <v>3</v>
+      </c>
+      <c r="B152" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" s="54">
+        <v>4</v>
+      </c>
+      <c r="D152" s="55">
+        <v>24400</v>
+      </c>
+      <c r="E152" s="55">
+        <f t="shared" si="2"/>
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.6">
+      <c r="A153" s="54">
+        <v>4</v>
+      </c>
+      <c r="B153" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" s="54">
+        <v>1</v>
+      </c>
+      <c r="D153" s="55">
+        <v>162400</v>
+      </c>
+      <c r="E153" s="55">
+        <f t="shared" si="2"/>
+        <v>162400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="31.2">
+      <c r="A154" s="54">
+        <v>5</v>
+      </c>
+      <c r="B154" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" s="54">
+        <v>1</v>
+      </c>
+      <c r="D154" s="55">
+        <v>15000</v>
+      </c>
+      <c r="E154" s="55">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="62.4">
+      <c r="A155" s="54">
+        <v>6</v>
+      </c>
+      <c r="B155" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C155" s="54">
+        <v>4</v>
+      </c>
+      <c r="D155" s="55">
+        <v>49400</v>
+      </c>
+      <c r="E155" s="55">
+        <f t="shared" si="2"/>
+        <v>197600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="31.2">
+      <c r="A156" s="54">
+        <v>7</v>
+      </c>
+      <c r="B156" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" s="54">
+        <v>2</v>
+      </c>
+      <c r="D156" s="55">
+        <v>5990</v>
+      </c>
+      <c r="E156" s="55">
+        <f t="shared" si="2"/>
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="46.8">
+      <c r="A157" s="54">
+        <v>8</v>
+      </c>
+      <c r="B157" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C157" s="54">
+        <v>8</v>
+      </c>
+      <c r="D157" s="55">
+        <v>10880</v>
+      </c>
+      <c r="E157" s="55">
+        <f t="shared" si="2"/>
+        <v>87040</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.6">
+      <c r="A158" s="54">
+        <v>9</v>
+      </c>
+      <c r="B158" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" s="54">
+        <v>2</v>
+      </c>
+      <c r="D158" s="55">
+        <v>18380</v>
+      </c>
+      <c r="E158" s="55">
+        <f t="shared" si="2"/>
+        <v>36760</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.6">
+      <c r="A159" s="54">
+        <v>10</v>
+      </c>
+      <c r="B159" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C159" s="54">
+        <v>1</v>
+      </c>
+      <c r="D159" s="55">
+        <v>35990</v>
+      </c>
+      <c r="E159" s="55">
+        <f t="shared" si="2"/>
+        <v>35990</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.6">
+      <c r="A160" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B160" s="57"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="59">
+        <f>SUM(E150:E159)</f>
+        <v>1083930</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.6">
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="61"/>
+    </row>
+    <row r="162" spans="1:5" ht="21">
+      <c r="A162" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B162" s="63"/>
+      <c r="C162" s="63"/>
+      <c r="D162" s="64"/>
+      <c r="E162" s="60"/>
+    </row>
+    <row r="163" spans="1:5" ht="15.6">
+      <c r="A163" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.6">
+      <c r="A164" s="54">
+        <v>1</v>
+      </c>
+      <c r="B164" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C164" s="54">
+        <v>4</v>
+      </c>
+      <c r="D164" s="55">
+        <v>24990</v>
+      </c>
+      <c r="E164" s="55">
+        <f t="shared" ref="E164:E176" si="3">C164*D164</f>
+        <v>99960</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="31.2">
+      <c r="A165" s="54">
+        <v>2</v>
+      </c>
+      <c r="B165" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C165" s="54">
+        <v>1</v>
+      </c>
+      <c r="D165" s="55">
+        <v>7600</v>
+      </c>
+      <c r="E165" s="55">
+        <f t="shared" si="3"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="31.2">
+      <c r="A166" s="54">
+        <v>3</v>
+      </c>
+      <c r="B166" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C166" s="54">
+        <v>6</v>
+      </c>
+      <c r="D166" s="55">
+        <v>2600</v>
+      </c>
+      <c r="E166" s="55">
+        <f t="shared" si="3"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.6">
+      <c r="A167" s="54">
+        <v>4</v>
+      </c>
+      <c r="B167" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C167" s="54">
+        <v>36</v>
+      </c>
+      <c r="D167" s="55">
+        <v>180</v>
+      </c>
+      <c r="E167" s="55">
+        <f t="shared" si="3"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.6">
+      <c r="A168" s="54">
+        <v>5</v>
+      </c>
+      <c r="B168" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C168" s="54">
+        <v>60</v>
+      </c>
+      <c r="D168" s="55">
+        <v>80</v>
+      </c>
+      <c r="E168" s="55">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="31.2">
+      <c r="A169" s="54">
+        <v>6</v>
+      </c>
+      <c r="B169" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" s="54">
+        <v>1</v>
+      </c>
+      <c r="D169" s="55">
+        <v>400</v>
+      </c>
+      <c r="E169" s="55">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="31.2">
+      <c r="A170" s="54">
+        <v>7</v>
+      </c>
+      <c r="B170" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C170" s="54">
+        <v>36</v>
+      </c>
+      <c r="D170" s="55">
+        <v>180</v>
+      </c>
+      <c r="E170" s="55">
+        <f t="shared" si="3"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="46.8">
+      <c r="A171" s="54">
+        <v>8</v>
+      </c>
+      <c r="B171" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C171" s="54">
+        <v>3000</v>
+      </c>
+      <c r="D171" s="55">
+        <v>120</v>
+      </c>
+      <c r="E171" s="55">
+        <f t="shared" si="3"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="31.2">
+      <c r="A172" s="54">
+        <v>9</v>
+      </c>
+      <c r="B172" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C172" s="54">
+        <v>4</v>
+      </c>
+      <c r="D172" s="55">
+        <v>11160</v>
+      </c>
+      <c r="E172" s="55">
+        <f t="shared" si="3"/>
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.6">
+      <c r="A173" s="54">
+        <v>10</v>
+      </c>
+      <c r="B173" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="54">
+        <v>2</v>
+      </c>
+      <c r="D173" s="55">
+        <v>5800</v>
+      </c>
+      <c r="E173" s="55">
+        <f t="shared" si="3"/>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.6">
+      <c r="A174" s="54">
+        <v>11</v>
+      </c>
+      <c r="B174" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C174" s="54">
+        <v>60</v>
+      </c>
+      <c r="D174" s="55">
+        <v>300</v>
+      </c>
+      <c r="E174" s="55">
+        <f t="shared" si="3"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="31.2">
+      <c r="A175" s="54">
+        <v>12</v>
+      </c>
+      <c r="B175" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C175" s="54">
+        <v>10</v>
+      </c>
+      <c r="D175" s="55">
+        <v>1000</v>
+      </c>
+      <c r="E175" s="55">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.6">
+      <c r="A176" s="54">
+        <v>13</v>
+      </c>
+      <c r="B176" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C176" s="54">
+        <v>1</v>
+      </c>
+      <c r="D176" s="55">
+        <v>150000</v>
+      </c>
+      <c r="E176" s="55">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.6">
+      <c r="A177" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B177" s="57"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="59">
+        <f>SUM(E164:E176)</f>
+        <v>735560</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.6">
+      <c r="A178" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B178" s="57"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="59">
+        <f>E160+E177</f>
+        <v>1819490</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.6">
+      <c r="A179" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="57"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="58"/>
+      <c r="E179" s="59">
+        <f>E178*9%</f>
+        <v>163754.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.6">
+      <c r="A180" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="57"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="59">
+        <f>E178*9%</f>
+        <v>163754.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.6">
+      <c r="A181" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="59">
+        <f>SUM(E178:E180)</f>
+        <v>2146998.2000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.6">
+      <c r="A182" s="60"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="60"/>
+      <c r="D182" s="60"/>
+      <c r="E182" s="60"/>
+    </row>
+    <row r="183" spans="1:5" ht="15.6">
+      <c r="A183" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B183" s="66"/>
+      <c r="C183" s="67"/>
+      <c r="D183" s="67"/>
+      <c r="E183" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="24" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,8 @@
     <sheet name="Putz 206 APS" sheetId="30" r:id="rId30"/>
     <sheet name="Putz 207" sheetId="31" r:id="rId31"/>
     <sheet name="Putz 208" sheetId="32" r:id="rId32"/>
-    <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
+    <sheet name="Putz 209" sheetId="34" r:id="rId33"/>
+    <sheet name="Nerul 210" sheetId="33" r:id="rId34"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="123">
   <si>
     <t>Sr. No</t>
   </si>
@@ -323,66 +324,15 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Dlink or Similar 8-Ports 10/100/1000Mbps PoE + 2-Ports SFP 100/1000Mbps Smart Managed Switch, 65Watts</t>
-  </si>
-  <si>
-    <t>Dlink or Similar 7 port Unmanged Switch with 4 x 10/100/1000 Base-T PoE+ Ports, 1 x 10/100/1000 Base-T Port &amp; 2 x 100/1000 Base-X SFP port.  -40°C~70°C (-40°F~158°F) Operating Temperature.</t>
-  </si>
-  <si>
-    <t>Dlink or Similar 1000Base-LX Single-Mode, 10KM SFP Transceiver</t>
-  </si>
-  <si>
-    <t>Dlink or Similar 1000Base-LX Single Mode SFP transceiver. 10 Km. -40° to 85° C operating temperature.</t>
-  </si>
-  <si>
     <t>4 TB WD Purple Surveillance Hard Disk</t>
   </si>
   <si>
-    <t>32'' LED Display Samsung or Similar</t>
-  </si>
-  <si>
     <t>SUB TOTAL (1)</t>
   </si>
   <si>
     <t>Passive Components</t>
   </si>
   <si>
-    <t>Dlink or Similar Outdoor 6U Rack IP 55</t>
-  </si>
-  <si>
-    <t>Dlink or Similar Wall Mount Rack 6U x 550 W x 450 D, with Standard accessories</t>
-  </si>
-  <si>
-    <t>Dlink or Similar Patch Panel  UTP Keystone- 24 Port- Unloaded (Cat 5e,Cat 6 &amp; Cat 6 A )</t>
-  </si>
-  <si>
-    <t>Dlink or Similar Jack Cat 6 Keystone UTP - White</t>
-  </si>
-  <si>
-    <t>Cabling with CAT 6 Dlink cable with casing, cabling, laying</t>
-  </si>
-  <si>
-    <t>Dlink or Similar Dlink or Similar UTP Modular Plugs Pack of 100</t>
-  </si>
-  <si>
-    <t>Dlink or Similar CAT6 UTP 24AWG PATCH CORD:1M,Plug 30U' Snagless</t>
-  </si>
-  <si>
-    <t>Dlink or Similar O. F.Cable 06F Outdoor - Armoured Unitube SM - HDPE Sheath (qty in meters) with pulling/laying arially</t>
-  </si>
-  <si>
-    <t>Dlink or Similar LIU 12 Port Rack Mount - Loaded (SC) SM</t>
-  </si>
-  <si>
-    <t>Dlink or Similar LIU 6 PORT Rack Mount - Loaded</t>
-  </si>
-  <si>
-    <t>Dlink or Similar PIGTAIL SC SM SIMPLEX LENGTH- 1m</t>
-  </si>
-  <si>
-    <t>Dlink or Similar PATCH CORD LC-SC SM DUPLEX LENGTH- 1m</t>
-  </si>
-  <si>
     <t>INSTALLATION TESTING COMMISSIONING for (1) and (2)</t>
   </si>
   <si>
@@ -395,37 +345,82 @@
     <t>GRAND TOTAL</t>
   </si>
   <si>
-    <t>Note : Fiber Slicing per no to be charged @ 950/- per as actualls</t>
-  </si>
-  <si>
-    <t>Dlink 2 MP Day &amp; Night Fixed Outdoor Bullet Network Camera</t>
-  </si>
-  <si>
-    <t>Honeywell PTZ 4MP High Speed Dome Network Camera</t>
-  </si>
-  <si>
-    <t>Honeywell4 MP Day &amp; Night Varifocal Outdoor Bullet Network Camera</t>
-  </si>
-  <si>
-    <t>Dlink 32CH Network Video Recorder (NVR)</t>
-  </si>
-  <si>
-    <t>Dlink 7 port Unmanged Switch with 4 x 10/100/1000 Base-T PoE+ Ports, 1 x 10/100/1000 Base-T Port &amp; 2 x 100/1000 Base-X SFP port.  -40°C~70°C (-40°F~158°F) Operating Temperature.</t>
-  </si>
-  <si>
-    <t>Dlink 1000Base-LX Single-Mode, 10KM SFP Transceiver</t>
-  </si>
-  <si>
     <t>Outdoor 6U Rack IP 55</t>
   </si>
   <si>
     <t>Wall Mount Rack 6U x 550 W x 450 D, with Standard accessories</t>
   </si>
   <si>
-    <t>Dlink Patch Panel  UTP Keystone- 24 Port- Unloaded (Cat 5e,Cat 6 &amp; Cat 6 A )</t>
-  </si>
-  <si>
-    <t>Dlink CAT6 UTP 24AWG PATCH CORD:1M,Plug 30U' Snagless</t>
+    <t>12X 4 MP High Speed Dome Network Camera</t>
+  </si>
+  <si>
+    <t>2 MP Day &amp; Night Fixed Outdoor Bullet Network Camera</t>
+  </si>
+  <si>
+    <t>4 MP Day &amp; Night Varifocal Outdoor Bullet Network Camera</t>
+  </si>
+  <si>
+    <t>64CH 8 SATA RAID Network Video Recorder (NVR)</t>
+  </si>
+  <si>
+    <t>8-Ports 10/100/1000Mbps PoE + 2-Ports SFP 100/1000Mbps Smart Managed Switch, 65Watts</t>
+  </si>
+  <si>
+    <t>7 port Unmanged Switch with 4 x 10/100/1000 Base-T PoE+ Ports, 1 x 10/100/1000 Base-T Port &amp; 2 x 100/1000 Base-X SFP port.  -40°C~70°C (-40°F~158°F) Operating Temperature.</t>
+  </si>
+  <si>
+    <t>1000Base-LX Single Mode SFP transceiver. 10 Km. -40° to 85° C operating temperature.</t>
+  </si>
+  <si>
+    <t>32'' LED Display</t>
+  </si>
+  <si>
+    <t>Patch Panel  UTP Keystone- 24 Port- Unloaded (Cat 5e,Cat 6 &amp; Cat 6 A )</t>
+  </si>
+  <si>
+    <t>Jack Cat 6 Keystone UTP - White</t>
+  </si>
+  <si>
+    <t>Cabling with CAT 6 cable with casing, cabling, laying</t>
+  </si>
+  <si>
+    <t>UTP Modular Plugs Pack of 100</t>
+  </si>
+  <si>
+    <t>CAT6 UTP 24AWG PATCH CORD:1M,Plug 30U' Snagless</t>
+  </si>
+  <si>
+    <t>O. F.Cable 06F Outdoor - Armoured Unitube SM - HDPE Sheath (qty in meters) with pulling/laying arially</t>
+  </si>
+  <si>
+    <t>PATCH CORD LC-SC SM DUPLEX LENGTH- 1m</t>
+  </si>
+  <si>
+    <t>PIGTAIL SC SM SIMPLEX LENGTH- 1m</t>
+  </si>
+  <si>
+    <t>LIU 12 Port Rack Mount - Loaded (SC) SM</t>
+  </si>
+  <si>
+    <t>LIU 6 PORT Rack Mount - Loaded</t>
+  </si>
+  <si>
+    <t>Fiber Slicing</t>
+  </si>
+  <si>
+    <t>Advance Received</t>
+  </si>
+  <si>
+    <t>Balance to be paid</t>
+  </si>
+  <si>
+    <t>1000Base-LX Single-Mode, 10KM SFP Transceiver</t>
+  </si>
+  <si>
+    <t>GST 18%</t>
+  </si>
+  <si>
+    <t>151379615 (27-09-2023)</t>
   </si>
 </sst>
 </file>
@@ -603,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -746,18 +741,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,6 +753,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,15 +790,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,14 +801,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,56 +1224,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1410,56 +1408,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1543,56 +1541,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1702,56 +1700,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1836,56 +1834,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2042,56 +2040,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2176,56 +2174,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2333,56 +2331,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2562,56 +2560,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2867,56 +2865,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3072,56 +3070,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3324,56 +3322,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3507,56 +3505,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3786,56 +3784,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3992,56 +3990,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4125,56 +4123,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4259,56 +4257,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4418,56 +4416,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4553,56 +4551,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4807,56 +4805,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4987,56 +4985,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5167,56 +5165,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5300,56 +5298,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5432,56 +5430,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5565,56 +5563,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5636,7 +5634,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5720,56 +5718,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5788,1127 +5786,773 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="73.6640625" style="26" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24.6" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>33684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56">
+        <f>SUM(G2)</f>
+        <v>33684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="56">
+        <f>G3*9%</f>
+        <v>3031.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="56">
+        <f>G3*9%</f>
+        <v>3031.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="56">
+        <f>SUM(G3:G5)</f>
+        <v>39747.119999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12" style="26" customWidth="1"/>
+    <col min="2" max="2" width="81" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="26"/>
     <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="49" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="54">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="54">
+    <row r="3" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A3" s="50">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="50">
         <v>4</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="51">
         <v>84690</v>
       </c>
-      <c r="E3" s="55">
-        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+      <c r="E3" s="51">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
         <v>338760</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A4" s="54">
+    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="50">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="54">
+      <c r="B4" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="50">
         <v>12</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="51">
         <v>8400</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="51">
         <f t="shared" si="0"/>
         <v>100800</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.8" customHeight="1">
-      <c r="A5" s="54">
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="50">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="B5" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="50">
         <v>4</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="51">
         <v>24400</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="51">
         <f t="shared" si="0"/>
         <v>97600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6">
-      <c r="A6" s="54">
+    <row r="6" spans="1:5" ht="16.8" customHeight="1">
+      <c r="A6" s="50">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="54">
-        <v>1</v>
-      </c>
-      <c r="D6" s="55">
+      <c r="B6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51">
         <v>162400</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="51">
         <f t="shared" si="0"/>
         <v>162400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="49.2" customHeight="1">
-      <c r="A7" s="54">
+    <row r="7" spans="1:5" ht="31.8" customHeight="1">
+      <c r="A7" s="50">
         <v>5</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="54">
-        <v>5</v>
-      </c>
-      <c r="D7" s="55">
+      <c r="B7" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="51">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46.8" customHeight="1">
+      <c r="A8" s="50">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="50">
+        <v>4</v>
+      </c>
+      <c r="D8" s="51">
         <v>49400</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E8" s="51">
         <f t="shared" si="0"/>
-        <v>247000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6">
-      <c r="A8" s="54">
-        <v>6</v>
-      </c>
-      <c r="B8" s="54" t="s">
+        <v>197600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="54">
-        <v>10</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="C9" s="50">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51">
         <v>5990</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E9" s="51">
         <f t="shared" si="0"/>
-        <v>59900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6">
-      <c r="A9" s="54">
-        <v>7</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="54">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1">
+      <c r="A10" s="50">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="50">
+        <v>8</v>
+      </c>
+      <c r="D10" s="51">
+        <v>10880</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="0"/>
+        <v>87040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A11" s="50">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="50">
         <v>2</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D11" s="51">
         <v>18380</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E11" s="51">
         <f t="shared" si="0"/>
         <v>36760</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6">
-      <c r="A10" s="54">
-        <v>8</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="54">
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="50">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="50">
+        <v>1</v>
+      </c>
+      <c r="D12" s="51">
         <v>35990</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E12" s="51">
         <f t="shared" si="0"/>
         <v>35990</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6">
-      <c r="A11" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59">
-        <f>SUM(E3:E10)</f>
-        <v>1079210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-    </row>
-    <row r="13" spans="1:5" ht="21">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="62" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
       <c r="D13" s="64"/>
-      <c r="E13" s="60"/>
+      <c r="E13" s="52">
+        <f>SUM(E3:E12)</f>
+        <v>1083930</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15.6">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="1:5" ht="21">
+      <c r="A15" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="A16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B16" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D16" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E16" s="49" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="54">
-        <v>1</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="54">
+    <row r="17" spans="1:5" ht="15.6">
+      <c r="A17" s="50">
+        <v>1</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="50">
         <v>4</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D17" s="51">
         <v>24990</v>
       </c>
-      <c r="E15" s="55">
-        <f t="shared" ref="E15:E27" si="1">C15*D15</f>
+      <c r="E17" s="51">
+        <f t="shared" ref="E17:E30" si="1">C17*D17</f>
         <v>99960</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6">
-      <c r="A16" s="54">
+    <row r="18" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A18" s="50">
         <v>2</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="54">
-        <v>1</v>
-      </c>
-      <c r="D16" s="55">
+      <c r="B18" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="50">
+        <v>1</v>
+      </c>
+      <c r="D18" s="51">
         <v>7600</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E18" s="51">
         <f t="shared" si="1"/>
         <v>7600</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A17" s="54">
+    <row r="19" spans="1:5" ht="12" customHeight="1">
+      <c r="A19" s="50">
         <v>3</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="54">
-        <v>1</v>
-      </c>
-      <c r="D17" s="55">
+      <c r="B19" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="50">
+        <v>6</v>
+      </c>
+      <c r="D19" s="51">
         <v>2600</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E19" s="51">
         <f t="shared" si="1"/>
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.2" customHeight="1">
-      <c r="A18" s="54">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6">
+      <c r="A20" s="50">
         <v>4</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="54">
+      <c r="B20" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="50">
         <v>36</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D20" s="51">
         <v>180</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E20" s="51">
         <f t="shared" si="1"/>
         <v>6480</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.6" customHeight="1">
-      <c r="A19" s="54">
+    <row r="21" spans="1:5" ht="15.6">
+      <c r="A21" s="50">
         <v>5</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="54">
+      <c r="B21" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="50">
         <v>60</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D21" s="51">
         <v>80</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E21" s="51">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="54">
+    <row r="22" spans="1:5" ht="15.6">
+      <c r="A22" s="50">
         <v>6</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="54">
-        <v>1</v>
-      </c>
-      <c r="D20" s="55">
+      <c r="B22" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="50">
+        <v>1</v>
+      </c>
+      <c r="D22" s="51">
         <v>400</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E22" s="51">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6">
-      <c r="A21" s="54">
+    <row r="23" spans="1:5" ht="15.6">
+      <c r="A23" s="50">
         <v>7</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="54">
-        <v>6</v>
-      </c>
-      <c r="D21" s="55">
+      <c r="B23" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="50">
+        <v>36</v>
+      </c>
+      <c r="D23" s="51">
         <v>180</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E23" s="51">
         <f t="shared" si="1"/>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="37.799999999999997" customHeight="1">
-      <c r="A22" s="54">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.2">
+      <c r="A24" s="50">
         <v>8</v>
       </c>
-      <c r="B22" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="54">
-        <v>3000</v>
-      </c>
-      <c r="D22" s="55">
+      <c r="B24" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="50">
+        <v>3189</v>
+      </c>
+      <c r="D24" s="51">
         <v>120</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E24" s="51">
         <f t="shared" si="1"/>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A23" s="54">
+        <v>382680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6">
+      <c r="A25" s="50">
         <v>9</v>
       </c>
-      <c r="B23" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="54">
+      <c r="B25" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="50">
         <v>4</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D25" s="51">
         <v>11160</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E25" s="51">
         <f t="shared" si="1"/>
         <v>44640</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A24" s="54">
+    <row r="26" spans="1:5" ht="15.6">
+      <c r="A26" s="50">
         <v>10</v>
       </c>
-      <c r="B24" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="54">
+      <c r="B26" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="50">
         <v>2</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D26" s="51">
         <v>5800</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E26" s="51">
         <f t="shared" si="1"/>
         <v>11600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1">
-      <c r="A25" s="54">
+    <row r="27" spans="1:5" ht="15.6">
+      <c r="A27" s="50">
         <v>11</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="54">
+      <c r="B27" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="50">
         <v>60</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D27" s="51">
         <v>300</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E27" s="51">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="54">
+    <row r="28" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A28" s="50">
         <v>12</v>
       </c>
-      <c r="B26" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="54">
+      <c r="B28" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="50">
         <v>10</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D28" s="51">
         <v>1000</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E28" s="51">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A27" s="54">
+    <row r="29" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A29" s="50">
         <v>13</v>
       </c>
-      <c r="B27" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="54">
-        <v>1</v>
-      </c>
-      <c r="D27" s="55">
+      <c r="B29" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="50">
+        <v>20</v>
+      </c>
+      <c r="D29" s="51">
+        <v>950</v>
+      </c>
+      <c r="E29" s="51">
+        <f t="shared" si="1"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A30" s="50">
+        <v>14</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="50">
+        <v>1</v>
+      </c>
+      <c r="D30" s="51">
         <v>150000</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E30" s="51">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6">
-      <c r="A28" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59">
-        <f>SUM(E15:E27)</f>
-        <v>717160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6">
-      <c r="A29" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59">
-        <f>E11+E28</f>
-        <v>1796370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6">
-      <c r="A30" s="56" t="s">
+    <row r="31" spans="1:5" ht="15.6">
+      <c r="A31" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="52">
+        <f>SUM(E17:E30)</f>
+        <v>777240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6">
+      <c r="A32" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="52">
+        <f>E13+E31</f>
+        <v>1861170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6">
+      <c r="A33" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59">
-        <f>E29*9%</f>
-        <v>161673.29999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6">
-      <c r="A31" s="56" t="s">
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="52">
+        <f>E32*9%</f>
+        <v>167505.29999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6">
+      <c r="A34" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59">
-        <f>E29*9%</f>
-        <v>161673.29999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6">
-      <c r="A32" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59">
-        <f>SUM(E29:E31)</f>
-        <v>2119716.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6">
-      <c r="A34" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="60"/>
-    </row>
-    <row r="148" spans="1:5" ht="21">
-      <c r="A148" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B148" s="51"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="52"/>
-    </row>
-    <row r="149" spans="1:5" ht="15.6">
-      <c r="A149" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.6">
-      <c r="A150" s="54">
-        <v>1</v>
-      </c>
-      <c r="B150" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C150" s="54">
-        <v>4</v>
-      </c>
-      <c r="D150" s="55">
-        <v>84690</v>
-      </c>
-      <c r="E150" s="55">
-        <f t="shared" ref="E150:E159" si="2">C150*D150</f>
-        <v>338760</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="31.2">
-      <c r="A151" s="54">
-        <v>2</v>
-      </c>
-      <c r="B151" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C151" s="54">
-        <v>12</v>
-      </c>
-      <c r="D151" s="55">
-        <v>8400</v>
-      </c>
-      <c r="E151" s="55">
-        <f t="shared" si="2"/>
-        <v>100800</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="31.2">
-      <c r="A152" s="54">
-        <v>3</v>
-      </c>
-      <c r="B152" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C152" s="54">
-        <v>4</v>
-      </c>
-      <c r="D152" s="55">
-        <v>24400</v>
-      </c>
-      <c r="E152" s="55">
-        <f t="shared" si="2"/>
-        <v>97600</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.6">
-      <c r="A153" s="54">
-        <v>4</v>
-      </c>
-      <c r="B153" s="54" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="52">
+        <f>E32*9%</f>
+        <v>167505.29999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6">
+      <c r="A35" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="52">
+        <f>SUM(E32:E34)</f>
+        <v>2196180.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="57" customFormat="1"/>
+    <row r="37" spans="1:10" s="57" customFormat="1"/>
+    <row r="38" spans="1:10" s="57" customFormat="1">
+      <c r="A38" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="58">
+        <v>1861170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="58">
+        <f>B38*18%</f>
+        <v>335010.59999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="58">
+        <v>2196180</v>
+      </c>
+      <c r="J40" s="57">
+        <f>E35-1364617</f>
+        <v>831563.60000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="57" customFormat="1"/>
+    <row r="50" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A50" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C153" s="54">
-        <v>1</v>
-      </c>
-      <c r="D153" s="55">
-        <v>162400</v>
-      </c>
-      <c r="E153" s="55">
-        <f t="shared" si="2"/>
-        <v>162400</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="31.2">
-      <c r="A154" s="54">
-        <v>5</v>
-      </c>
-      <c r="B154" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C154" s="54">
-        <v>1</v>
-      </c>
-      <c r="D154" s="55">
-        <v>15000</v>
-      </c>
-      <c r="E154" s="55">
-        <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="62.4">
-      <c r="A155" s="54">
-        <v>6</v>
-      </c>
-      <c r="B155" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C155" s="54">
-        <v>4</v>
-      </c>
-      <c r="D155" s="55">
-        <v>49400</v>
-      </c>
-      <c r="E155" s="55">
-        <f t="shared" si="2"/>
-        <v>197600</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="31.2">
-      <c r="A156" s="54">
-        <v>7</v>
-      </c>
-      <c r="B156" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C156" s="54">
-        <v>2</v>
-      </c>
-      <c r="D156" s="55">
-        <v>5990</v>
-      </c>
-      <c r="E156" s="55">
-        <f t="shared" si="2"/>
-        <v>11980</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="46.8">
-      <c r="A157" s="54">
-        <v>8</v>
-      </c>
-      <c r="B157" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C157" s="54">
-        <v>8</v>
-      </c>
-      <c r="D157" s="55">
-        <v>10880</v>
-      </c>
-      <c r="E157" s="55">
-        <f t="shared" si="2"/>
-        <v>87040</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.6">
-      <c r="A158" s="54">
-        <v>9</v>
-      </c>
-      <c r="B158" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C158" s="54">
-        <v>2</v>
-      </c>
-      <c r="D158" s="55">
-        <v>18380</v>
-      </c>
-      <c r="E158" s="55">
-        <f t="shared" si="2"/>
-        <v>36760</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.6">
-      <c r="A159" s="54">
-        <v>10</v>
-      </c>
-      <c r="B159" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C159" s="54">
-        <v>1</v>
-      </c>
-      <c r="D159" s="55">
-        <v>35990</v>
-      </c>
-      <c r="E159" s="55">
-        <f t="shared" si="2"/>
-        <v>35990</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15.6">
-      <c r="A160" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B160" s="57"/>
-      <c r="C160" s="57"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="59">
-        <f>SUM(E150:E159)</f>
-        <v>1083930</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.6">
-      <c r="A161" s="60"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="61"/>
-    </row>
-    <row r="162" spans="1:5" ht="21">
-      <c r="A162" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B162" s="63"/>
-      <c r="C162" s="63"/>
-      <c r="D162" s="64"/>
-      <c r="E162" s="60"/>
-    </row>
-    <row r="163" spans="1:5" ht="15.6">
-      <c r="A163" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.6">
-      <c r="A164" s="54">
-        <v>1</v>
-      </c>
-      <c r="B164" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C164" s="54">
-        <v>4</v>
-      </c>
-      <c r="D164" s="55">
-        <v>24990</v>
-      </c>
-      <c r="E164" s="55">
-        <f t="shared" ref="E164:E176" si="3">C164*D164</f>
-        <v>99960</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="31.2">
-      <c r="A165" s="54">
-        <v>2</v>
-      </c>
-      <c r="B165" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C165" s="54">
-        <v>1</v>
-      </c>
-      <c r="D165" s="55">
-        <v>7600</v>
-      </c>
-      <c r="E165" s="55">
-        <f t="shared" si="3"/>
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="31.2">
-      <c r="A166" s="54">
-        <v>3</v>
-      </c>
-      <c r="B166" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C166" s="54">
-        <v>6</v>
-      </c>
-      <c r="D166" s="55">
-        <v>2600</v>
-      </c>
-      <c r="E166" s="55">
-        <f t="shared" si="3"/>
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="15.6">
-      <c r="A167" s="54">
-        <v>4</v>
-      </c>
-      <c r="B167" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C167" s="54">
-        <v>36</v>
-      </c>
-      <c r="D167" s="55">
-        <v>180</v>
-      </c>
-      <c r="E167" s="55">
-        <f t="shared" si="3"/>
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="15.6">
-      <c r="A168" s="54">
-        <v>5</v>
-      </c>
-      <c r="B168" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C168" s="54">
-        <v>60</v>
-      </c>
-      <c r="D168" s="55">
-        <v>80</v>
-      </c>
-      <c r="E168" s="55">
-        <f t="shared" si="3"/>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="31.2">
-      <c r="A169" s="54">
-        <v>6</v>
-      </c>
-      <c r="B169" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C169" s="54">
-        <v>1</v>
-      </c>
-      <c r="D169" s="55">
-        <v>400</v>
-      </c>
-      <c r="E169" s="55">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="31.2">
-      <c r="A170" s="54">
-        <v>7</v>
-      </c>
-      <c r="B170" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C170" s="54">
-        <v>36</v>
-      </c>
-      <c r="D170" s="55">
-        <v>180</v>
-      </c>
-      <c r="E170" s="55">
-        <f t="shared" si="3"/>
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="46.8">
-      <c r="A171" s="54">
-        <v>8</v>
-      </c>
-      <c r="B171" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C171" s="54">
-        <v>3000</v>
-      </c>
-      <c r="D171" s="55">
-        <v>120</v>
-      </c>
-      <c r="E171" s="55">
-        <f t="shared" si="3"/>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="31.2">
-      <c r="A172" s="54">
-        <v>9</v>
-      </c>
-      <c r="B172" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C172" s="54">
-        <v>4</v>
-      </c>
-      <c r="D172" s="55">
-        <v>11160</v>
-      </c>
-      <c r="E172" s="55">
-        <f t="shared" si="3"/>
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="15.6">
-      <c r="A173" s="54">
-        <v>10</v>
-      </c>
-      <c r="B173" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C173" s="54">
-        <v>2</v>
-      </c>
-      <c r="D173" s="55">
-        <v>5800</v>
-      </c>
-      <c r="E173" s="55">
-        <f t="shared" si="3"/>
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="15.6">
-      <c r="A174" s="54">
-        <v>11</v>
-      </c>
-      <c r="B174" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C174" s="54">
-        <v>60</v>
-      </c>
-      <c r="D174" s="55">
-        <v>300</v>
-      </c>
-      <c r="E174" s="55">
-        <f t="shared" si="3"/>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="31.2">
-      <c r="A175" s="54">
-        <v>12</v>
-      </c>
-      <c r="B175" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C175" s="54">
-        <v>10</v>
-      </c>
-      <c r="D175" s="55">
-        <v>1000</v>
-      </c>
-      <c r="E175" s="55">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15.6">
-      <c r="A176" s="54">
-        <v>13</v>
-      </c>
-      <c r="B176" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C176" s="54">
-        <v>1</v>
-      </c>
-      <c r="D176" s="55">
-        <v>150000</v>
-      </c>
-      <c r="E176" s="55">
-        <f t="shared" si="3"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15.6">
-      <c r="A177" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B177" s="57"/>
-      <c r="C177" s="57"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="59">
-        <f>SUM(E164:E176)</f>
-        <v>735560</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15.6">
-      <c r="A178" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B178" s="57"/>
-      <c r="C178" s="57"/>
-      <c r="D178" s="58"/>
-      <c r="E178" s="59">
-        <f>E160+E177</f>
-        <v>1819490</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15.6">
-      <c r="A179" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="57"/>
-      <c r="C179" s="57"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="59">
-        <f>E178*9%</f>
-        <v>163754.1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15.6">
-      <c r="A180" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="57"/>
-      <c r="C180" s="57"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="59">
-        <f>E178*9%</f>
-        <v>163754.1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="15.6">
-      <c r="A181" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B181" s="57"/>
-      <c r="C181" s="57"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="59">
-        <f>SUM(E178:E180)</f>
-        <v>2146998.2000000002</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.6">
-      <c r="A182" s="60"/>
-      <c r="B182" s="60"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="60"/>
-      <c r="E182" s="60"/>
-    </row>
-    <row r="183" spans="1:5" ht="15.6">
-      <c r="A183" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B183" s="66"/>
-      <c r="C183" s="67"/>
-      <c r="D183" s="67"/>
-      <c r="E183" s="60"/>
+      <c r="B50" s="48">
+        <v>1364617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A51" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="48">
+        <v>831563</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A183:B183"/>
+  <mergeCells count="8">
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7128,56 +6772,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -7283,56 +6927,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7401,48 +7045,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -7552,56 +7196,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -7711,56 +7355,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -7893,56 +7537,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,9 @@
     <sheet name="Putz 206 APS" sheetId="30" r:id="rId30"/>
     <sheet name="Putz 207" sheetId="31" r:id="rId31"/>
     <sheet name="Putz 208" sheetId="32" r:id="rId32"/>
-    <sheet name="Putz 209" sheetId="34" r:id="rId33"/>
-    <sheet name="Nerul 210" sheetId="33" r:id="rId34"/>
+    <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
+    <sheet name="Putz 210" sheetId="34" r:id="rId34"/>
+    <sheet name="Nerul 301" sheetId="35" r:id="rId35"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="132">
   <si>
     <t>Sr. No</t>
   </si>
@@ -339,9 +340,6 @@
     <t>SUB TOTAL (2)</t>
   </si>
   <si>
-    <t>SUB TOTAL (1) + (2)</t>
-  </si>
-  <si>
     <t>GRAND TOTAL</t>
   </si>
   <si>
@@ -421,6 +419,36 @@
   </si>
   <si>
     <t>151379615 (27-09-2023)</t>
+  </si>
+  <si>
+    <t>CSGT 9%</t>
+  </si>
+  <si>
+    <t>Advance Paid</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>TOTAL (1) + (2)</t>
+  </si>
+  <si>
+    <t>Extra Charges</t>
+  </si>
+  <si>
+    <t>Grand Total (1+2+3+4+5+6)</t>
+  </si>
+  <si>
+    <t>3) TOTAL (1) + (2)</t>
+  </si>
+  <si>
+    <t>5) CSGT 9%</t>
+  </si>
+  <si>
+    <t>6) SGST 9%</t>
+  </si>
+  <si>
+    <t>4) Scafolding Movement Charges - 1000/- per pole i.e 4000/-</t>
   </si>
 </sst>
 </file>
@@ -598,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -773,6 +801,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1224,56 +1261,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1408,56 +1445,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1541,56 +1578,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1700,56 +1737,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1834,56 +1871,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2040,56 +2077,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2174,56 +2211,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2331,56 +2368,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2560,56 +2597,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2865,56 +2902,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3070,56 +3107,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3322,56 +3359,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3505,56 +3542,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3784,56 +3821,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3990,56 +4027,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4123,56 +4160,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4257,56 +4294,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4416,56 +4453,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4551,56 +4588,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4805,56 +4842,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4985,56 +5022,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5165,56 +5202,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5298,56 +5335,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5430,56 +5467,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5563,56 +5600,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5718,56 +5755,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5786,10 +5823,694 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12" style="26" customWidth="1"/>
+    <col min="2" max="2" width="88.88671875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="26"/>
+    <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="26"/>
+    <col min="9" max="10" width="9.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A3" s="50">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="50">
+        <v>4</v>
+      </c>
+      <c r="D3" s="51">
+        <v>84690</v>
+      </c>
+      <c r="E3" s="51">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>338760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="50">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="50">
+        <v>12</v>
+      </c>
+      <c r="D4" s="51">
+        <v>8400</v>
+      </c>
+      <c r="E4" s="51">
+        <f t="shared" si="0"/>
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="50">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="50">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>24400</v>
+      </c>
+      <c r="E5" s="51">
+        <f t="shared" si="0"/>
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" customHeight="1">
+      <c r="A6" s="50">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51">
+        <v>162400</v>
+      </c>
+      <c r="E6" s="51">
+        <f t="shared" si="0"/>
+        <v>162400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A7" s="50">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="51">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1">
+      <c r="A8" s="50">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="50">
+        <v>4</v>
+      </c>
+      <c r="D8" s="51">
+        <v>49400</v>
+      </c>
+      <c r="E8" s="51">
+        <f t="shared" si="0"/>
+        <v>197600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="50">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51">
+        <v>5990</v>
+      </c>
+      <c r="E9" s="51">
+        <f t="shared" si="0"/>
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.8" customHeight="1">
+      <c r="A10" s="50">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="50">
+        <v>8</v>
+      </c>
+      <c r="D10" s="51">
+        <v>10880</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="0"/>
+        <v>87040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A11" s="50">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="50">
+        <v>2</v>
+      </c>
+      <c r="D11" s="51">
+        <v>18380</v>
+      </c>
+      <c r="E11" s="51">
+        <f t="shared" si="0"/>
+        <v>36760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="50">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="50">
+        <v>1</v>
+      </c>
+      <c r="D12" s="51">
+        <v>35990</v>
+      </c>
+      <c r="E12" s="51">
+        <f t="shared" si="0"/>
+        <v>35990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6">
+      <c r="A13" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="52">
+        <f>SUM(E3:E12)</f>
+        <v>1083930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="1:5" ht="21">
+      <c r="A15" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="A16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.6">
+      <c r="A17" s="50">
+        <v>1</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="50">
+        <v>4</v>
+      </c>
+      <c r="D17" s="51">
+        <v>24990</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" ref="E17:E30" si="1">C17*D17</f>
+        <v>99960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="19.8" customHeight="1">
+      <c r="A18" s="50">
+        <v>2</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="50">
+        <v>1</v>
+      </c>
+      <c r="D18" s="51">
+        <v>7600</v>
+      </c>
+      <c r="E18" s="51">
+        <f t="shared" si="1"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12" customHeight="1">
+      <c r="A19" s="50">
+        <v>3</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="50">
+        <v>6</v>
+      </c>
+      <c r="D19" s="51">
+        <v>2600</v>
+      </c>
+      <c r="E19" s="51">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.6">
+      <c r="A20" s="50">
+        <v>4</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="50">
+        <v>36</v>
+      </c>
+      <c r="D20" s="51">
+        <v>180</v>
+      </c>
+      <c r="E20" s="51">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.6">
+      <c r="A21" s="50">
+        <v>5</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="50">
+        <v>60</v>
+      </c>
+      <c r="D21" s="51">
+        <v>80</v>
+      </c>
+      <c r="E21" s="51">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.6">
+      <c r="A22" s="50">
+        <v>6</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="50">
+        <v>1</v>
+      </c>
+      <c r="D22" s="51">
+        <v>400</v>
+      </c>
+      <c r="E22" s="51">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.6">
+      <c r="A23" s="50">
+        <v>7</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="50">
+        <v>36</v>
+      </c>
+      <c r="D23" s="51">
+        <v>180</v>
+      </c>
+      <c r="E23" s="51">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.2">
+      <c r="A24" s="50">
+        <v>8</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="50">
+        <v>3189</v>
+      </c>
+      <c r="D24" s="51">
+        <v>120</v>
+      </c>
+      <c r="E24" s="51">
+        <f t="shared" si="1"/>
+        <v>382680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.6">
+      <c r="A25" s="50">
+        <v>9</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="50">
+        <v>4</v>
+      </c>
+      <c r="D25" s="51">
+        <v>11160</v>
+      </c>
+      <c r="E25" s="51">
+        <f t="shared" si="1"/>
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.6">
+      <c r="A26" s="50">
+        <v>10</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="50">
+        <v>2</v>
+      </c>
+      <c r="D26" s="51">
+        <v>5800</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.6">
+      <c r="A27" s="50">
+        <v>11</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="50">
+        <v>60</v>
+      </c>
+      <c r="D27" s="51">
+        <v>300</v>
+      </c>
+      <c r="E27" s="51">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A28" s="50">
+        <v>12</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="50">
+        <v>10</v>
+      </c>
+      <c r="D28" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="51">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A29" s="50">
+        <v>13</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="50">
+        <v>21</v>
+      </c>
+      <c r="D29" s="51">
+        <v>950</v>
+      </c>
+      <c r="E29" s="51">
+        <f t="shared" si="1"/>
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="A30" s="50">
+        <v>14</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="50">
+        <v>1</v>
+      </c>
+      <c r="D30" s="51">
+        <v>150000</v>
+      </c>
+      <c r="E30" s="51">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="31.2">
+      <c r="A31" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="52">
+        <f>SUM(E17:E30)</f>
+        <v>778190</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.6">
+      <c r="A32" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="52">
+        <f>E13+E31</f>
+        <v>1862120</v>
+      </c>
+      <c r="I32" s="55">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+      <c r="J32" s="55">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+      <c r="K32" s="55">
+        <f>E32+I32+J32</f>
+        <v>2197301.6</v>
+      </c>
+      <c r="L32" s="55">
+        <v>1364617</v>
+      </c>
+      <c r="M32" s="55">
+        <f>K32-L32</f>
+        <v>832684.60000000009</v>
+      </c>
+      <c r="N32" s="60"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6">
+      <c r="A33" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="52">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6">
+      <c r="A34" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="52">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6">
+      <c r="A35" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="52">
+        <f>SUM(E32:E34)</f>
+        <v>2197301.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="57" customFormat="1"/>
+    <row r="37" spans="1:10" s="57" customFormat="1"/>
+    <row r="38" spans="1:10" s="57" customFormat="1">
+      <c r="A38" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="58">
+        <v>1861170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="58">
+        <f>B38*18%</f>
+        <v>335010.59999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="58">
+        <v>2196180</v>
+      </c>
+      <c r="J40" s="57">
+        <f>E35-1364617</f>
+        <v>832684.60000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="57" customFormat="1"/>
+    <row r="50" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A50" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="48">
+        <v>1364617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A51" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="48">
+        <v>831563</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5828,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="10">
         <v>616026</v>
@@ -5848,56 +6569,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -5914,31 +6635,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="26" customWidth="1"/>
-    <col min="2" max="2" width="81" style="26" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="53.88671875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="26"/>
+    <col min="6" max="7" width="8.88671875" style="26"/>
+    <col min="8" max="8" width="9.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -5963,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="50">
         <v>4</v>
@@ -5981,7 +6708,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="50">
         <v>12</v>
@@ -5999,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="50">
         <v>4</v>
@@ -6017,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="50">
         <v>1</v>
@@ -6030,12 +6757,12 @@
         <v>162400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.8" customHeight="1">
+    <row r="7" spans="1:5" ht="16.2" customHeight="1">
       <c r="A7" s="50">
         <v>5</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -6048,12 +6775,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="46.8" customHeight="1">
+    <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" s="50">
         <v>6</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="50">
         <v>4</v>
@@ -6071,7 +6798,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="50">
         <v>2</v>
@@ -6084,12 +6811,12 @@
         <v>11980</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1">
+    <row r="10" spans="1:5" ht="16.8" customHeight="1">
       <c r="A10" s="50">
         <v>8</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="50">
         <v>8</v>
@@ -6125,7 +6852,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="50">
         <v>1</v>
@@ -6139,12 +6866,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6158,12 +6885,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6183,12 +6910,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6">
+    <row r="17" spans="1:14" ht="15.6">
       <c r="A17" s="50">
         <v>1</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="50">
         <v>4</v>
@@ -6201,12 +6928,12 @@
         <v>99960</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.8" customHeight="1">
+    <row r="18" spans="1:14" ht="19.8" customHeight="1">
       <c r="A18" s="50">
         <v>2</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="50">
         <v>1</v>
@@ -6219,12 +6946,12 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1">
+    <row r="19" spans="1:14" ht="12" customHeight="1">
       <c r="A19" s="50">
         <v>3</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="50">
         <v>6</v>
@@ -6237,12 +6964,12 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6">
+    <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="50">
         <v>4</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="50">
         <v>36</v>
@@ -6255,12 +6982,12 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6">
+    <row r="21" spans="1:14" ht="15.6">
       <c r="A21" s="50">
         <v>5</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="50">
         <v>60</v>
@@ -6273,12 +7000,12 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6">
+    <row r="22" spans="1:14" ht="15.6">
       <c r="A22" s="50">
         <v>6</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="50">
         <v>1</v>
@@ -6291,12 +7018,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6">
+    <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="50">
         <v>7</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="50">
         <v>36</v>
@@ -6309,12 +7036,12 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.2">
+    <row r="24" spans="1:14" ht="31.2">
       <c r="A24" s="50">
         <v>8</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="50">
         <v>3189</v>
@@ -6327,12 +7054,12 @@
         <v>382680</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6">
+    <row r="25" spans="1:14" ht="15.6">
       <c r="A25" s="50">
         <v>9</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="50">
         <v>4</v>
@@ -6345,12 +7072,12 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6">
+    <row r="26" spans="1:14" ht="15.6">
       <c r="A26" s="50">
         <v>10</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="50">
         <v>2</v>
@@ -6363,12 +7090,12 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6">
+    <row r="27" spans="1:14" ht="15.6">
       <c r="A27" s="50">
         <v>11</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="50">
         <v>60</v>
@@ -6381,12 +7108,12 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19.2" customHeight="1">
+    <row r="28" spans="1:14" ht="19.2" customHeight="1">
       <c r="A28" s="50">
         <v>12</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="50">
         <v>10</v>
@@ -6399,25 +7126,25 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19.2" customHeight="1">
+    <row r="29" spans="1:14" ht="19.2" customHeight="1">
       <c r="A29" s="50">
         <v>13</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="51">
         <v>950</v>
       </c>
       <c r="E29" s="51">
         <f t="shared" si="1"/>
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="22.2" customHeight="1">
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.399999999999999" customHeight="1">
       <c r="A30" s="50">
         <v>14</v>
       </c>
@@ -6435,126 +7162,172 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:14" ht="15.6" customHeight="1">
+      <c r="A31" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
-        <v>777240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6">
-      <c r="A32" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+        <v>778190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.6">
+      <c r="A32" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
+        <v>1862120</v>
+      </c>
+      <c r="N32" s="60"/>
+    </row>
+    <row r="33" spans="1:8" s="57" customFormat="1"/>
+    <row r="34" spans="1:8" s="57" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A34" s="61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="26">
+        <f>1862120+4000</f>
+        <v>1866120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="H36" s="26">
+        <f>H35*9%</f>
+        <v>167950.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="31.2">
+      <c r="A37" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="26">
+        <f>H35*9%</f>
+        <v>167950.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.6">
+      <c r="A38" s="55">
+        <f>H35*9%</f>
+        <v>167950.8</v>
+      </c>
+      <c r="B38" s="55">
+        <f>H35*9%</f>
+        <v>167950.8</v>
+      </c>
+      <c r="C38" s="55">
+        <f>E32+4000+A38+B38</f>
+        <v>2202021.6</v>
+      </c>
+      <c r="D38" s="55">
+        <v>1364617</v>
+      </c>
+      <c r="E38" s="55">
+        <f>C38-D38</f>
+        <v>837404.60000000009</v>
+      </c>
+      <c r="H38" s="26">
+        <f>SUM(H35:H37)</f>
+        <v>2202021.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="E44" s="26">
+        <f>E13+E31+4000</f>
+        <v>1866120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="E45" s="26">
+        <f>E44*1.18</f>
+        <v>2202021.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="E46" s="26">
+        <f>E45-D38</f>
+        <v>837404.60000000009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="57" customFormat="1">
+      <c r="A53" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="58">
         <v>1861170</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="52">
-        <f>E32*9%</f>
-        <v>167505.29999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="52">
-        <f>E32*9%</f>
-        <v>167505.29999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="52">
-        <f>SUM(E32:E34)</f>
-        <v>2196180.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="57" customFormat="1"/>
-    <row r="37" spans="1:10" s="57" customFormat="1"/>
-    <row r="38" spans="1:10" s="57" customFormat="1">
-      <c r="A38" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="58">
-        <v>1861170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="58">
-        <f>B38*18%</f>
+    <row r="54" spans="1:10">
+      <c r="A54" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="58">
+        <f>B53*18%</f>
         <v>335010.59999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="58" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="58">
+      <c r="B55" s="58">
         <v>2196180</v>
       </c>
-      <c r="J40" s="57">
-        <f>E35-1364617</f>
-        <v>831563.60000000009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="57" customFormat="1"/>
-    <row r="50" spans="1:2" s="57" customFormat="1" ht="28.8">
-      <c r="A50" s="48" t="s">
+      <c r="J55" s="57" t="e">
+        <f>#REF!-1364617</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="57" customFormat="1"/>
+    <row r="65" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A65" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="48">
+        <v>1364617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A66" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="48">
-        <v>1364617</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="57" customFormat="1" ht="28.8">
-      <c r="A51" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="48">
+      <c r="B66" s="48">
         <v>831563</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6772,56 +7545,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -6927,56 +7700,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7045,48 +7818,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -7196,56 +7969,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -7355,56 +8128,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -7537,56 +8310,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="32" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,12 @@
     <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
     <sheet name="Putz 210" sheetId="34" r:id="rId34"/>
     <sheet name="Nerul 301" sheetId="35" r:id="rId35"/>
+    <sheet name="Putz 302 APS" sheetId="36" r:id="rId36"/>
+    <sheet name="Putz 303" sheetId="37" r:id="rId37"/>
+    <sheet name="Putz 304" sheetId="38" r:id="rId38"/>
+    <sheet name="Putz 305 APS" sheetId="39" r:id="rId39"/>
+    <sheet name="Rama 306" sheetId="40" r:id="rId40"/>
+    <sheet name="Mark 307" sheetId="41" r:id="rId41"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="144">
   <si>
     <t>Sr. No</t>
   </si>
@@ -449,6 +455,42 @@
   </si>
   <si>
     <t>4) Scafolding Movement Charges - 1000/- per pole i.e 4000/-</t>
+  </si>
+  <si>
+    <t>APS 151350196 (05-07-2023)</t>
+  </si>
+  <si>
+    <t>Dell PC (Serial Number - (CPU - FL7WMZ3, D6VVMZ3) (Monitor - 1YSMXY3, 29ZMXY3)</t>
+  </si>
+  <si>
+    <t>APS 151343138 (14-06-2023)</t>
+  </si>
+  <si>
+    <t>151390089 (23-10-2023)</t>
+  </si>
+  <si>
+    <t>151387910 (18-10-2023)</t>
+  </si>
+  <si>
+    <t>151393630 (02-11-2023)</t>
+  </si>
+  <si>
+    <t>151391303 (26-10-2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC UPS (Serial Number - 242204546116, 242204546115)                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>151395324 (06-11-2023) (APS)</t>
+  </si>
+  <si>
+    <t>Monochrome laserjet printer CanonLBP6030BJ (Serial Number - NTNA753462, NTNA753450 )</t>
+  </si>
+  <si>
+    <t>1025VA Microtek UPS with Exide Solar Battery 150 Ah with trolley</t>
+  </si>
+  <si>
+    <t>1825VA Microtek UPS with two Exide Solar Battery 150 Ah with double trolley</t>
   </si>
 </sst>
 </file>
@@ -626,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,6 +852,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1127,7 +1178,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1261,56 +1312,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1445,56 +1496,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1578,56 +1629,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1737,56 +1788,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1871,56 +1922,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2077,56 +2128,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2211,56 +2262,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2368,56 +2419,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2442,7 +2493,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2597,56 +2648,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2902,56 +2953,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3107,56 +3158,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3359,56 +3410,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3542,56 +3593,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3821,56 +3872,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3895,7 +3946,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4027,56 +4078,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4101,7 +4152,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4160,56 +4211,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4294,56 +4345,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4453,56 +4504,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4588,56 +4639,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4842,56 +4893,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4916,7 +4967,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5022,56 +5073,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5202,56 +5253,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5335,56 +5386,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5467,56 +5518,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5600,56 +5651,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5668,10 +5719,13 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5755,56 +5809,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5826,7 +5880,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5845,12 +5899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6051,12 +6105,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6070,12 +6124,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6348,12 +6402,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6375,12 +6429,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6407,36 +6461,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6507,10 +6561,13 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6569,56 +6626,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6639,8 +6696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6660,12 +6717,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6866,12 +6923,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6885,12 +6942,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7163,24 +7220,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7328,6 +7385,765 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="10">
+        <v>719031</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45000</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4">
+        <v>724214</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2490</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="62">
+        <f>SUM(G2:G3)</f>
+        <v>94980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="62">
+        <f>G4*9%</f>
+        <v>8548.1999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="62">
+        <f>G4*9%</f>
+        <v>8548.1999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="62">
+        <f>SUM(G4:G6)</f>
+        <v>112076.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" customHeight="1">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.2" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1908</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G8" si="0">E2*F2</f>
+        <v>38160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>565</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>28070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="5">
+        <v>615698</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4831</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>48310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>28336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>58689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>28690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63">
+        <f>SUM(G2:G8)</f>
+        <v>286755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63">
+        <f>G9*9%</f>
+        <v>25807.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="63">
+        <f>G9*9%</f>
+        <v>25807.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="63">
+        <f>SUM(G9:G11)</f>
+        <v>338370.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="44.4" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
+        <v>28070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>93104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="5">
+        <v>616039</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>136941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="64">
+        <f>SUM(G2:G4)</f>
+        <v>258115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="64">
+        <f>G5*9%</f>
+        <v>23230.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64">
+        <f>G5*9%</f>
+        <v>23230.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="64">
+        <f>SUM(G5:G7)</f>
+        <v>304575.69999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="4">
+        <v>719381</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11990</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>23980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>89824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="64">
+        <f>SUM(G2:G3)</f>
+        <v>113804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="64">
+        <f>G4*9%</f>
+        <v>10242.359999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="64">
+        <f>G4*9%</f>
+        <v>10242.359999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64">
+        <f>SUM(G4:G6)</f>
+        <v>134288.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7545,56 +8361,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -7606,6 +8422,220 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>19560</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="17">
+        <f>SUM(E2)</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="17">
+        <f>SUM(E3:E5)</f>
+        <v>23080.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="41.4">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>19560</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="17">
+        <f>SUM(E2)</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="17">
+        <f>SUM(E3:E5)</f>
+        <v>23080.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7700,56 +8730,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7768,10 +8798,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7818,48 +8851,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -7969,56 +9002,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -8128,56 +9161,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -8310,56 +9343,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="32" activeTab="40"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="33" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,9 @@
     <sheet name="Putz 303" sheetId="37" r:id="rId37"/>
     <sheet name="Putz 304" sheetId="38" r:id="rId38"/>
     <sheet name="Putz 305 APS" sheetId="39" r:id="rId39"/>
-    <sheet name="Rama 306" sheetId="40" r:id="rId40"/>
+    <sheet name="Deepak Precision WorksPvtLtd306" sheetId="42" r:id="rId40"/>
     <sheet name="Mark 307" sheetId="41" r:id="rId41"/>
+    <sheet name="Rama 308" sheetId="40" r:id="rId42"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="146">
   <si>
     <t>Sr. No</t>
   </si>
@@ -491,6 +492,12 @@
   </si>
   <si>
     <t>1825VA Microtek UPS with two Exide Solar Battery 150 Ah with double trolley</t>
+  </si>
+  <si>
+    <t>UPS Backup using tubular Battery by Exide witrh 36 months warranty 150 AH inclusive with buyback of old battery</t>
+  </si>
+  <si>
+    <t>IGST 18%</t>
   </si>
 </sst>
 </file>
@@ -668,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -892,6 +899,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8429,6 +8437,105 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="75"/>
+    <col min="2" max="2" width="33.88671875" style="75" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="75" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="75" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="41.4">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>13220</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>13220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="17">
+        <f>SUM(E2)</f>
+        <v>13220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="17">
+        <f>E3*18%</f>
+        <v>2379.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="17">
+        <f>SUM(E3:E4)</f>
+        <v>15599.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8437,7 +8544,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8457,12 +8564,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6">
+    <row r="2" spans="1:5" ht="41.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -8534,17 +8641,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8564,12 +8671,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41.4">
+    <row r="2" spans="1:5" ht="27.6">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="33" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="36" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -47,8 +47,9 @@
     <sheet name="Putz 304" sheetId="38" r:id="rId38"/>
     <sheet name="Putz 305 APS" sheetId="39" r:id="rId39"/>
     <sheet name="Deepak Precision WorksPvtLtd306" sheetId="42" r:id="rId40"/>
-    <sheet name="Mark 307" sheetId="41" r:id="rId41"/>
+    <sheet name="Putz 307 APS" sheetId="43" r:id="rId41"/>
     <sheet name="Rama 308" sheetId="40" r:id="rId42"/>
+    <sheet name="Mark 309" sheetId="41" r:id="rId43"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="146">
   <si>
     <t>Sr. No</t>
   </si>
@@ -675,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -872,6 +873,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -899,7 +904,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,56 +1324,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1504,56 +1508,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1637,56 +1641,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1796,56 +1800,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1930,56 +1934,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2136,56 +2140,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2270,56 +2274,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2427,56 +2431,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2656,56 +2660,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2961,56 +2965,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3166,56 +3170,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3418,56 +3422,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3601,56 +3605,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3880,56 +3884,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4086,56 +4090,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4219,56 +4223,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4353,56 +4357,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4512,56 +4516,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4647,56 +4651,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4901,56 +4905,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5081,56 +5085,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5261,56 +5265,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5394,56 +5398,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5526,56 +5530,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5659,56 +5663,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5817,56 +5821,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5907,12 +5911,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6113,12 +6117,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6132,12 +6136,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6410,12 +6414,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6437,12 +6441,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6469,36 +6473,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6634,56 +6638,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6725,12 +6729,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6931,12 +6935,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6950,12 +6954,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7228,24 +7232,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7486,56 +7490,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7759,56 +7763,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -7935,56 +7939,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8006,7 +8010,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8089,56 +8093,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8369,56 +8373,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8439,18 +8443,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="75"/>
-    <col min="2" max="2" width="33.88671875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="75" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="75" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="75"/>
+    <col min="1" max="1" width="8.88671875" style="66"/>
+    <col min="2" max="2" width="33.88671875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="66" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="66" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
@@ -8489,36 +8493,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8536,15 +8540,142 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="52.8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5">
+        <v>668330</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="65">
+        <f>SUM(G2)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="65">
+        <f>G3*9%</f>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="65">
+        <f>G3*9%</f>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="65">
+        <f>SUM(G3:G5)</f>
+        <v>106200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8564,12 +8695,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41.4">
+    <row r="2" spans="1:5" ht="27.6">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -8583,48 +8714,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -8641,17 +8772,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8671,12 +8802,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6">
+    <row r="2" spans="1:5" ht="41.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -8690,48 +8821,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -8837,56 +8968,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -8958,48 +9089,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -9109,56 +9240,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -9268,56 +9399,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -9450,56 +9581,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="36" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="39" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -48,8 +48,9 @@
     <sheet name="Putz 305 APS" sheetId="39" r:id="rId39"/>
     <sheet name="Deepak Precision WorksPvtLtd306" sheetId="42" r:id="rId40"/>
     <sheet name="Putz 307 APS" sheetId="43" r:id="rId41"/>
-    <sheet name="Rama 308" sheetId="40" r:id="rId42"/>
-    <sheet name="Mark 309" sheetId="41" r:id="rId43"/>
+    <sheet name="Deepak Precision WorksPVtLtd308" sheetId="44" r:id="rId42"/>
+    <sheet name="Rama 309" sheetId="40" r:id="rId43"/>
+    <sheet name="Mark 310" sheetId="41" r:id="rId44"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="146">
   <si>
     <t>Sr. No</t>
   </si>
@@ -495,10 +496,10 @@
     <t>1825VA Microtek UPS with two Exide Solar Battery 150 Ah with double trolley</t>
   </si>
   <si>
-    <t>UPS Backup using tubular Battery by Exide witrh 36 months warranty 150 AH inclusive with buyback of old battery</t>
-  </si>
-  <si>
     <t>IGST 18%</t>
+  </si>
+  <si>
+    <t>UPS Backup using tubular Battery by Exide with 36 months warranty 150 AH inclusive with buyback of old battery</t>
   </si>
 </sst>
 </file>
@@ -8441,10 +8442,13 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8479,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -8506,7 +8510,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -8574,7 +8578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.8">
+    <row r="2" spans="1:7" ht="39.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8667,10 +8671,108 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72" customHeight="1">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>13220</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>13220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="17">
+        <f>SUM(E2)</f>
+        <v>13220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="17">
+        <f>E3*18%</f>
+        <v>2379.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="17">
+        <f>SUM(E3:E4)</f>
+        <v>15599.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8772,12 +8874,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="39" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="37" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,9 @@
     <sheet name="Deepak Precision WorksPvtLtd306" sheetId="42" r:id="rId40"/>
     <sheet name="Putz 307 APS" sheetId="43" r:id="rId41"/>
     <sheet name="Deepak Precision WorksPVtLtd308" sheetId="44" r:id="rId42"/>
-    <sheet name="Rama 309" sheetId="40" r:id="rId43"/>
+    <sheet name="Create 309" sheetId="45" r:id="rId43"/>
     <sheet name="Mark 310" sheetId="41" r:id="rId44"/>
+    <sheet name="Rama 311" sheetId="40" r:id="rId45"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="151">
   <si>
     <t>Sr. No</t>
   </si>
@@ -500,6 +501,21 @@
   </si>
   <si>
     <t>UPS Backup using tubular Battery by Exide with 36 months warranty 150 AH inclusive with buyback of old battery</t>
+  </si>
+  <si>
+    <t>6KVA Fuji Electric Onlinbe UPS with build in iso;ation transformer with backup using Exide SMF 26 ah batteries 16 nos</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>LUG</t>
+  </si>
+  <si>
+    <t>Rack</t>
   </si>
 </sst>
 </file>
@@ -7403,6 +7419,9 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7559,6 +7578,9 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7832,6 +7854,9 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8008,10 +8033,13 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8447,8 +8475,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8676,7 +8704,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -8769,18 +8797,19 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="27.6" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -8797,22 +8826,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6">
+    <row r="2" spans="1:5" ht="96.6">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" s="16">
-        <v>19560</v>
+        <v>130208</v>
       </c>
       <c r="E2" s="16">
         <f>C2*D2</f>
-        <v>19560</v>
+        <v>130208</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8824,7 +8853,7 @@
       <c r="D3" s="69"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
-        <v>19560</v>
+        <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8836,7 +8865,7 @@
       <c r="D4" s="69"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
-        <v>1760.3999999999999</v>
+        <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8848,7 +8877,7 @@
       <c r="D5" s="69"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
-        <v>1760.3999999999999</v>
+        <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8860,7 +8889,87 @@
       <c r="D6" s="69"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
-        <v>23080.800000000003</v>
+        <v>153645.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10">
+        <v>76000</v>
+      </c>
+      <c r="C10">
+        <f>B10*1.18</f>
+        <v>89680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11">
+        <f>3500*16</f>
+        <v>56000</v>
+      </c>
+      <c r="C11">
+        <f>B11</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12">
+        <f>150*15</f>
+        <v>2250</v>
+      </c>
+      <c r="C12">
+        <f>B12*1.18</f>
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>4500</v>
+      </c>
+      <c r="C13">
+        <f>B13*1.18</f>
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14">
+        <f>SUM(C10:C13)</f>
+        <v>153645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15">
+        <f>C14/1.18</f>
+        <v>130207.62711864407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16">
+        <f>C15*9%</f>
+        <v>11718.686440677966</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17">
+        <f>C15*9%</f>
+        <v>11718.686440677966</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18">
+        <f>SUM(C15:C17)</f>
+        <v>153645</v>
       </c>
     </row>
   </sheetData>
@@ -8879,7 +8988,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8910,6 +9019,113 @@
       </c>
       <c r="B2" s="15" t="s">
         <v>143</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>19560</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="17">
+        <f>SUM(E2)</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="17">
+        <f>SUM(E3:E5)</f>
+        <v>23080.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="37" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="40" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,9 @@
     <sheet name="Deepak Precision WorksPVtLtd308" sheetId="44" r:id="rId42"/>
     <sheet name="Create 309" sheetId="45" r:id="rId43"/>
     <sheet name="Mark 310" sheetId="41" r:id="rId44"/>
-    <sheet name="Rama 311" sheetId="40" r:id="rId45"/>
+    <sheet name="Putz 311" sheetId="46" r:id="rId45"/>
+    <sheet name="Putz 312 APS" sheetId="47" r:id="rId46"/>
+    <sheet name="Rama 313" sheetId="40" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="154">
   <si>
     <t>Sr. No</t>
   </si>
@@ -494,9 +496,6 @@
     <t>1025VA Microtek UPS with Exide Solar Battery 150 Ah with trolley</t>
   </si>
   <si>
-    <t>1825VA Microtek UPS with two Exide Solar Battery 150 Ah with double trolley</t>
-  </si>
-  <si>
     <t>IGST 18%</t>
   </si>
   <si>
@@ -516,6 +515,18 @@
   </si>
   <si>
     <t>Rack</t>
+  </si>
+  <si>
+    <t>1825VA Microtek UPS with two Exide Invertor Tubular Solar Battery 150 Ah with double trolley</t>
+  </si>
+  <si>
+    <t>Water Bellow_BP60_Dia 125 mm_flexible</t>
+  </si>
+  <si>
+    <t>151400127 (16-11-2023)</t>
+  </si>
+  <si>
+    <t>APS 151397344 (10-11-2023)</t>
   </si>
 </sst>
 </file>
@@ -693,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -891,6 +902,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1341,56 +1355,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1525,56 +1539,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1658,56 +1672,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1817,56 +1831,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1951,56 +1965,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2157,56 +2171,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2291,56 +2305,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2448,56 +2462,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2677,56 +2691,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2982,56 +2996,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3187,56 +3201,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3439,56 +3453,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3622,56 +3636,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3901,56 +3915,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4107,56 +4121,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4240,56 +4254,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4374,56 +4388,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4533,56 +4547,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4668,56 +4682,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4922,56 +4936,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5102,56 +5116,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5282,56 +5296,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5415,56 +5429,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5547,56 +5561,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5680,56 +5694,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5838,56 +5852,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5928,12 +5942,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6134,12 +6148,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6153,12 +6167,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6431,12 +6445,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6458,12 +6472,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6490,36 +6504,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6655,56 +6669,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6746,12 +6760,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6952,12 +6966,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6971,12 +6985,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7249,24 +7263,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7510,56 +7524,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7786,56 +7800,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -7965,56 +7979,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8122,56 +8136,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8402,56 +8416,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8511,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -8525,36 +8539,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="A4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8575,7 +8589,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8631,56 +8645,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8704,7 +8718,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -8736,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -8750,36 +8764,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="A4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8831,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -8845,48 +8859,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -8894,7 +8908,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10">
         <v>76000</v>
@@ -8906,7 +8920,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11">
         <f>3500*16</f>
@@ -8919,7 +8933,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <f>150*15</f>
@@ -8932,7 +8946,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>4500</v>
@@ -8988,15 +9002,18 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="27.6">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -9018,65 +9035,65 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" s="16">
-        <v>19560</v>
+        <v>35593</v>
       </c>
       <c r="E2" s="16">
         <f>C2*D2</f>
-        <v>19560</v>
+        <v>35593</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
-        <v>19560</v>
+        <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
-        <v>1760.3999999999999</v>
+        <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
-        <v>1760.3999999999999</v>
+        <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
-        <v>23080.800000000003</v>
+        <v>41999.740000000005</v>
       </c>
     </row>
   </sheetData>
@@ -9092,10 +9109,266 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="79.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="67">
+        <f>SUM(G2)</f>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
+        <f>G3*9%</f>
+        <v>5052.5999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="67">
+        <f>G3*9%</f>
+        <v>5052.5999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="67">
+        <f>SUM(G3:G5)</f>
+        <v>66245.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="79.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="4">
+        <v>635657</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="31">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4716</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>70740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="67">
+        <f>SUM(G2)</f>
+        <v>70740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
+        <f>G3*9%</f>
+        <v>6366.5999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="67">
+        <f>G3*9%</f>
+        <v>6366.5999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="67">
+        <f>SUM(G3:G5)</f>
+        <v>83473.200000000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9139,48 +9412,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9286,56 +9559,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -9407,48 +9680,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -9558,56 +9831,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -9717,56 +9990,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -9899,56 +10172,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="40" activeTab="45"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="40" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <sheet name="Mark 310" sheetId="41" r:id="rId44"/>
     <sheet name="Putz 311" sheetId="46" r:id="rId45"/>
     <sheet name="Putz 312 APS" sheetId="47" r:id="rId46"/>
-    <sheet name="Rama 313" sheetId="40" r:id="rId47"/>
+    <sheet name="Rama 314" sheetId="40" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -8719,7 +8719,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8814,7 +8814,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9002,7 +9002,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9111,7 +9111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -9122,7 +9122,7 @@
     <col min="7" max="7" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="79.2">
+    <row r="2" spans="1:7" ht="39.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9240,16 +9240,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="79.2">
+    <row r="2" spans="1:7" ht="36.6" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9368,7 +9370,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9633,7 +9635,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="40" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="42" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,8 @@
     <sheet name="Putz 311" sheetId="46" r:id="rId45"/>
     <sheet name="Putz 312 APS" sheetId="47" r:id="rId46"/>
     <sheet name="Rama 314" sheetId="40" r:id="rId47"/>
+    <sheet name="Putz 315" sheetId="48" r:id="rId48"/>
+    <sheet name="Omkar Enterprises 316" sheetId="49" r:id="rId49"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="157">
   <si>
     <t>Sr. No</t>
   </si>
@@ -527,6 +529,15 @@
   </si>
   <si>
     <t>APS 151397344 (10-11-2023)</t>
+  </si>
+  <si>
+    <t>151391314 (26-102-2023)</t>
+  </si>
+  <si>
+    <t>Admixture Tank 30 Ltrs</t>
+  </si>
+  <si>
+    <t>Acer 18.5 Monitor (Serial Number - MMTAMSS00733801B3D3E00)</t>
   </si>
 </sst>
 </file>
@@ -704,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -902,6 +913,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1355,56 +1369,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1539,56 +1553,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1672,56 +1686,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1831,56 +1845,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1965,56 +1979,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2171,56 +2185,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2305,56 +2319,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2462,56 +2476,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2691,56 +2705,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2996,56 +3010,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3201,56 +3215,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3453,56 +3467,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3636,56 +3650,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3915,56 +3929,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4121,56 +4135,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4254,56 +4268,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4388,56 +4402,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4547,56 +4561,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4682,56 +4696,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4936,56 +4950,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5116,56 +5130,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5296,56 +5310,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5429,56 +5443,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5561,56 +5575,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5694,56 +5708,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5852,56 +5866,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5942,12 +5956,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6148,12 +6162,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6167,12 +6181,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6445,12 +6459,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6472,12 +6486,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6504,36 +6518,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6669,56 +6683,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6760,12 +6774,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6966,12 +6980,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6985,12 +6999,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7263,24 +7277,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7524,56 +7538,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7800,56 +7814,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -7979,56 +7993,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8136,56 +8150,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8416,56 +8430,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8539,36 +8553,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8586,10 +8600,13 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8645,56 +8662,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8764,36 +8781,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8859,48 +8876,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9049,48 +9066,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9109,9 +9126,12 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -9170,56 +9190,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9238,10 +9258,13 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9299,56 +9322,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9370,7 +9393,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9414,51 +9437,289 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="8">
+        <v>662351</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="31">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>24050</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>144300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="68">
+        <f>SUM(G2)</f>
+        <v>144300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="68">
+        <f>G3*9%</f>
+        <v>12987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68">
+        <f>G3*9%</f>
+        <v>12987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="68">
+        <f>SUM(G3:G5)</f>
+        <v>170274</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>4250</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="17">
+        <f>SUM(E2)</f>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="17">
+        <f>E3*9%</f>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="17">
+        <f>E3*9%</f>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="17">
+        <f>SUM(E3:E5)</f>
+        <v>5015</v>
       </c>
     </row>
   </sheetData>
@@ -9561,56 +9822,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -9682,48 +9943,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -9833,56 +10094,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -9992,56 +10253,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -10174,56 +10435,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -9500,7 +9500,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9625,10 +9625,13 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9656,7 +9659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.2" customHeight="1">
+    <row r="2" spans="1:5" ht="26.4" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="42" activeTab="48"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="44" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
     <sheet name="Rama 314" sheetId="40" r:id="rId47"/>
     <sheet name="Putz 315" sheetId="48" r:id="rId48"/>
     <sheet name="Omkar Enterprises 316" sheetId="49" r:id="rId49"/>
+    <sheet name="El Shaddai Proforma Invoice 317" sheetId="50" r:id="rId50"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="163">
   <si>
     <t>Sr. No</t>
   </si>
@@ -538,13 +539,31 @@
   </si>
   <si>
     <t>Acer 18.5 Monitor (Serial Number - MMTAMSS00733801B3D3E00)</t>
+  </si>
+  <si>
+    <t>Fuji 10 Kva UPS</t>
+  </si>
+  <si>
+    <t>26 AH Battery</t>
+  </si>
+  <si>
+    <t>INSTALLATION TESTING COMMISSIONING</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>CGST 14%</t>
+  </si>
+  <si>
+    <t>SGST 14%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +647,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -715,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,6 +949,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -947,6 +986,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1369,56 +1423,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1553,56 +1607,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1686,56 +1740,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1845,56 +1899,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1979,56 +2033,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2185,56 +2239,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2319,56 +2373,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2476,56 +2530,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2705,56 +2759,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3010,56 +3064,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3215,56 +3269,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3467,56 +3521,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3650,56 +3704,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3929,56 +3983,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4135,56 +4189,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4268,56 +4322,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4402,56 +4456,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4561,56 +4615,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4696,56 +4750,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4950,56 +5004,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5130,56 +5184,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5310,56 +5364,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5443,56 +5497,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5575,56 +5629,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5708,56 +5762,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5866,56 +5920,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5956,12 +6010,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6162,12 +6216,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6181,12 +6235,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6459,12 +6513,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6486,12 +6540,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6518,36 +6572,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6683,56 +6737,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6774,12 +6828,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6980,12 +7034,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6999,12 +7053,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7277,24 +7331,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7538,56 +7592,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7814,56 +7868,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -7993,56 +8047,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8150,56 +8204,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8430,56 +8484,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8553,36 +8607,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8662,56 +8716,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8781,36 +8835,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8876,48 +8930,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9066,48 +9120,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9190,56 +9244,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9322,56 +9376,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9392,13 +9446,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9437,48 +9492,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9557,56 +9612,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9630,8 +9685,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9678,48 +9733,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9825,56 +9880,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -9886,6 +9941,211 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="71"/>
+    <col min="2" max="2" width="43.44140625" style="71" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="70">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="70">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70">
+        <v>117000</v>
+      </c>
+      <c r="E2" s="70">
+        <f t="shared" ref="E2:E5" si="0">C2*D2</f>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="70">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="70">
+        <v>16</v>
+      </c>
+      <c r="D3" s="70">
+        <v>3600</v>
+      </c>
+      <c r="E3" s="70">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="70">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="70">
+        <v>1</v>
+      </c>
+      <c r="D4" s="70">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="70">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.2" customHeight="1">
+      <c r="A5" s="70">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="70">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="70">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="69">
+        <f>SUM(E2:E5)</f>
+        <v>184600</v>
+      </c>
+      <c r="F6" s="71">
+        <f>E6</f>
+        <v>184600</v>
+      </c>
+      <c r="G6" s="71">
+        <f>F6-E3</f>
+        <v>127000</v>
+      </c>
+      <c r="I6" s="71">
+        <f>G6+H6</f>
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="69">
+        <f>127000*9%</f>
+        <v>11430</v>
+      </c>
+      <c r="G7" s="71">
+        <f>G6*1.18</f>
+        <v>149860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="69">
+        <f>127000*9%</f>
+        <v>11430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="69">
+        <f>E3*14%</f>
+        <v>8064.0000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="69">
+        <f>E3*14%</f>
+        <v>8064.0000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="69">
+        <f>SUM(E6:E10)</f>
+        <v>223588</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9946,48 +10206,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -10097,56 +10357,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -10256,56 +10516,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -10438,56 +10698,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="44" activeTab="46"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="45" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,7 @@
     <sheet name="Putz 315" sheetId="48" r:id="rId48"/>
     <sheet name="Omkar Enterprises 316" sheetId="49" r:id="rId49"/>
     <sheet name="El Shaddai Proforma Invoice 317" sheetId="50" r:id="rId50"/>
+    <sheet name="Pinge 401" sheetId="51" r:id="rId51"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="169">
   <si>
     <t>Sr. No</t>
   </si>
@@ -557,6 +558,24 @@
   </si>
   <si>
     <t>SGST 14%</t>
+  </si>
+  <si>
+    <t>RJ 45 Connector With Crimping etc complete</t>
+  </si>
+  <si>
+    <t>Enclosure with mounting</t>
+  </si>
+  <si>
+    <t>Dahua 2MP IP Bullet Camera</t>
+  </si>
+  <si>
+    <t>Dahua NVR Professional Series 16CH</t>
+  </si>
+  <si>
+    <t>WD Purple Surveillance Hard Disk 2 TB</t>
+  </si>
+  <si>
+    <t>CP Plus 8 + 2 Port POE Giga Switch</t>
   </si>
 </sst>
 </file>
@@ -9446,8 +9465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9456,7 +9475,7 @@
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="27.6">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -9686,7 +9705,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D5"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10146,6 +10165,223 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A2" s="70">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="70">
+        <v>7</v>
+      </c>
+      <c r="D2" s="70">
+        <v>4000</v>
+      </c>
+      <c r="E2" s="70">
+        <f t="shared" ref="E2:E8" si="0">C2*D2</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="70">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="70">
+        <v>1</v>
+      </c>
+      <c r="D3" s="70">
+        <v>23600</v>
+      </c>
+      <c r="E3" s="70">
+        <f t="shared" si="0"/>
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="70">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="70">
+        <v>1</v>
+      </c>
+      <c r="D4" s="70">
+        <v>5600</v>
+      </c>
+      <c r="E4" s="70">
+        <f t="shared" si="0"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="70">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="70">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70">
+        <v>10900</v>
+      </c>
+      <c r="E5" s="70">
+        <f t="shared" si="0"/>
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A6" s="70">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="70">
+        <v>22</v>
+      </c>
+      <c r="D6" s="70">
+        <v>150</v>
+      </c>
+      <c r="E6" s="70">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="70">
+        <v>6</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="70">
+        <v>7</v>
+      </c>
+      <c r="D7" s="70">
+        <v>100</v>
+      </c>
+      <c r="E7" s="70">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A8" s="70">
+        <v>7</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="70">
+        <v>1</v>
+      </c>
+      <c r="D8" s="70">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="70">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="69">
+        <f>SUM(E2:E8)</f>
+        <v>76600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="17">
+        <f>E9*9%</f>
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="17">
+        <f>E9*9%</f>
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="17">
+        <f>SUM(E9:E11)</f>
+        <v>90388</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -10175,7 +10175,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10183,6 +10183,7 @@
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="39.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10213,11 +10214,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="70">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E2" s="70">
         <f t="shared" ref="E2:E8" si="0">C2*D2</f>
-        <v>28000</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -10231,11 +10232,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="70">
-        <v>23600</v>
+        <v>18900</v>
       </c>
       <c r="E3" s="70">
         <f t="shared" si="0"/>
-        <v>23600</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10267,11 +10268,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="70">
-        <v>10900</v>
+        <v>9990</v>
       </c>
       <c r="E5" s="70">
         <f t="shared" si="0"/>
-        <v>10900</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" customHeight="1">
@@ -10282,14 +10283,14 @@
         <v>163</v>
       </c>
       <c r="C6" s="70">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="70">
         <v>150</v>
       </c>
       <c r="E6" s="70">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10337,7 +10338,7 @@
       <c r="D9" s="84"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
-        <v>76600</v>
+        <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10349,7 +10350,7 @@
       <c r="D10" s="74"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
-        <v>6894</v>
+        <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10361,7 +10362,7 @@
       <c r="D11" s="74"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
-        <v>6894</v>
+        <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10373,7 +10374,7 @@
       <c r="D12" s="74"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
-        <v>90388</v>
+        <v>82234.200000000012</v>
       </c>
     </row>
   </sheetData>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="45" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="48" activeTab="53"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,9 @@
     <sheet name="Omkar Enterprises 316" sheetId="49" r:id="rId49"/>
     <sheet name="El Shaddai Proforma Invoice 317" sheetId="50" r:id="rId50"/>
     <sheet name="Pinge 401" sheetId="51" r:id="rId51"/>
+    <sheet name="El Shaddai 402" sheetId="52" r:id="rId52"/>
+    <sheet name="Putz 403" sheetId="53" r:id="rId53"/>
+    <sheet name="Putz 404 APS" sheetId="54" r:id="rId54"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="172">
   <si>
     <t>Sr. No</t>
   </si>
@@ -576,6 +579,15 @@
   </si>
   <si>
     <t>CP Plus 8 + 2 Port POE Giga Switch</t>
+  </si>
+  <si>
+    <t>APS - 151413942 (20-12-2023)</t>
+  </si>
+  <si>
+    <t>151412764 (18-12-2023)</t>
+  </si>
+  <si>
+    <t>151411933 (15-12-2023)</t>
   </si>
 </sst>
 </file>
@@ -764,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -980,6 +992,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1020,6 +1035,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1442,56 +1464,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1626,56 +1648,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1759,56 +1781,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1918,56 +1940,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2052,56 +2074,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2258,56 +2280,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2392,56 +2414,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2549,56 +2571,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2778,56 +2800,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3083,56 +3105,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3288,56 +3310,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3540,56 +3562,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3723,56 +3745,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4002,56 +4024,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4208,56 +4230,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4341,56 +4363,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4475,56 +4497,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4634,56 +4656,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4769,56 +4791,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5023,56 +5045,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5203,56 +5225,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5383,56 +5405,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5516,56 +5538,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5648,56 +5670,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5781,56 +5803,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5939,56 +5961,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6029,12 +6051,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6235,12 +6257,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6254,12 +6276,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6532,12 +6554,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6559,12 +6581,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6591,36 +6613,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6756,56 +6778,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6847,12 +6869,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7053,12 +7075,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7072,12 +7094,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7350,24 +7372,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7611,56 +7633,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7887,56 +7909,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8066,56 +8088,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8223,56 +8245,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8503,56 +8525,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8626,36 +8648,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8735,56 +8757,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8854,36 +8876,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8949,48 +8971,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9139,48 +9161,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9263,56 +9285,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9395,56 +9417,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9511,48 +9533,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9571,10 +9593,13 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9631,56 +9656,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9752,48 +9777,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9899,56 +9924,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -9970,7 +9995,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10070,12 +10095,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10094,12 +10119,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10110,48 +10135,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10174,8 +10199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10330,48 +10355,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10383,6 +10408,478 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39.6">
+      <c r="A1" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.4">
+      <c r="A2" s="70">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="70">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70">
+        <v>117000</v>
+      </c>
+      <c r="E2" s="70">
+        <f t="shared" ref="E2:E5" si="0">C2*D2</f>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.4">
+      <c r="A3" s="70">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="70">
+        <v>16</v>
+      </c>
+      <c r="D3" s="70">
+        <v>3600</v>
+      </c>
+      <c r="E3" s="70">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="70">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="70">
+        <v>1</v>
+      </c>
+      <c r="D4" s="70">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="70">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="66">
+      <c r="A5" s="70">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="70">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="70">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="69">
+        <f>SUM(E2:E5)</f>
+        <v>184600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="69">
+        <f>127000*9%</f>
+        <v>11430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="69">
+        <f>127000*9%</f>
+        <v>11430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="69">
+        <f>E3*14%</f>
+        <v>8064.0000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="69">
+        <f>E3*14%</f>
+        <v>8064.0000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="69">
+        <f>SUM(E6:E10)</f>
+        <v>223588</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="79.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="31">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>28070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="31">
+        <v>250</v>
+      </c>
+      <c r="F3" s="1">
+        <v>565</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>141250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="72">
+        <f>SUM(G2:G3)</f>
+        <v>169320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="72">
+        <f>G4*9%</f>
+        <v>15238.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="72">
+        <f>G4*9%</f>
+        <v>15238.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="72">
+        <f>SUM(G4:G6)</f>
+        <v>199797.59999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="89" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="89" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="89"/>
+    <col min="4" max="4" width="26" style="89" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="89"/>
+    <col min="7" max="7" width="6.33203125" style="89" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60.6" customHeight="1">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="31">
+        <v>15</v>
+      </c>
+      <c r="F2" s="31">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>84210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="88">
+        <f>SUM(G2)</f>
+        <v>84210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="88">
+        <f>G3*9%</f>
+        <v>7578.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="88">
+        <f>G3*9%</f>
+        <v>7578.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="88">
+        <f>SUM(G3:G5)</f>
+        <v>99367.799999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10443,48 +10940,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -10594,56 +11091,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -10753,56 +11250,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -10935,56 +11432,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="48" activeTab="53"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="49" activeTab="54"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,7 @@
     <sheet name="El Shaddai 402" sheetId="52" r:id="rId52"/>
     <sheet name="Putz 403" sheetId="53" r:id="rId53"/>
     <sheet name="Putz 404 APS" sheetId="54" r:id="rId54"/>
+    <sheet name="Putz 405" sheetId="55" r:id="rId55"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="175">
   <si>
     <t>Sr. No</t>
   </si>
@@ -584,10 +585,19 @@
     <t>APS - 151413942 (20-12-2023)</t>
   </si>
   <si>
-    <t>151412764 (18-12-2023)</t>
-  </si>
-  <si>
     <t>151411933 (15-12-2023)</t>
+  </si>
+  <si>
+    <t>151415265 (26-12-2023)</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Dot Matrix Printer_LX-310 _MT0.35 with serial communication port (Serial Number - WAD7MA001308)</t>
+  </si>
+  <si>
+    <t>151412764 (18-12-2023) 151415265 (26-12-2023)</t>
   </si>
 </sst>
 </file>
@@ -776,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -992,6 +1002,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,10 +1054,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,56 +1477,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1648,56 +1661,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1781,56 +1794,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1940,56 +1953,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2074,56 +2087,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2280,56 +2293,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2414,56 +2427,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2571,56 +2584,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2800,56 +2813,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3105,56 +3118,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3310,56 +3323,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3562,56 +3575,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3745,56 +3758,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4024,56 +4037,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4230,56 +4243,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4363,56 +4376,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4497,56 +4510,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4656,56 +4669,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4791,56 +4804,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5045,56 +5058,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5225,56 +5238,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5405,56 +5418,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5538,56 +5551,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5670,56 +5683,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5803,56 +5816,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5961,56 +5974,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6051,12 +6064,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6257,12 +6270,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6276,12 +6289,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6554,12 +6567,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6581,12 +6594,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6613,36 +6626,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6778,56 +6791,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6849,7 +6862,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6869,12 +6882,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7075,12 +7088,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7094,12 +7107,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7372,24 +7385,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7633,56 +7646,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7909,56 +7922,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8088,56 +8101,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8245,56 +8258,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8525,56 +8538,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8648,36 +8661,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8757,56 +8770,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8876,36 +8889,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8971,48 +8984,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9161,48 +9174,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9285,56 +9298,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9417,56 +9430,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9533,48 +9546,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9656,56 +9669,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9777,48 +9790,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9924,56 +9937,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -10095,12 +10108,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10119,12 +10132,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10135,48 +10148,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10200,7 +10213,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10355,48 +10368,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10418,7 +10431,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10426,7 +10439,7 @@
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.6">
+    <row r="1" spans="1:5">
       <c r="A1" s="69" t="s">
         <v>36</v>
       </c>
@@ -10443,7 +10456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="70">
         <v>1</v>
       </c>
@@ -10461,7 +10474,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="70">
         <v>2</v>
       </c>
@@ -10497,7 +10510,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="66">
+    <row r="5" spans="1:5" ht="39.6">
       <c r="A5" s="70">
         <v>4</v>
       </c>
@@ -10516,72 +10529,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10589,12 +10602,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10602,19 +10615,20 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1">
       <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
@@ -10637,12 +10651,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="79.2">
+    <row r="2" spans="1:7" ht="26.4" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C2" s="10">
         <v>616026</v>
@@ -10651,22 +10665,22 @@
         <v>20</v>
       </c>
       <c r="E2" s="31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>5614</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
-        <v>28070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="39.6">
+        <f t="shared" ref="G2:G7" si="0">E2*F2</f>
+        <v>84210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>34</v>
@@ -10685,68 +10699,164 @@
         <v>141250</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:7" ht="21.6" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="5">
+        <v>616039</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="31">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>123899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="31">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>56672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="31">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>28690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="72">
-        <f>SUM(G2:G3)</f>
-        <v>169320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="B7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="5">
+        <v>716663</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="31">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1896</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="72">
+        <f>SUM(G2:G7)</f>
+        <v>442305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="72">
-        <f>G4*9%</f>
-        <v>15238.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="72">
+        <f>G8*9%</f>
+        <v>39807.449999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="72">
-        <f>G4*9%</f>
-        <v>15238.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="72">
+        <f>G8*9%</f>
+        <v>39807.449999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="72">
-        <f>SUM(G4:G6)</f>
-        <v>199797.59999999998</v>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="72">
+        <f>SUM(G8:G10)</f>
+        <v>521919.9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10756,45 +10866,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="89" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="89" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="89"/>
-    <col min="4" max="4" width="26" style="89" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="89"/>
-    <col min="7" max="7" width="6.33203125" style="89" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="89"/>
+    <col min="1" max="1" width="7.77734375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="74"/>
+    <col min="4" max="4" width="26" style="74" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="74"/>
+    <col min="7" max="7" width="6.33203125" style="74" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60.6" customHeight="1">
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -10819,57 +10929,57 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="88">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="73">
         <f>SUM(G2)</f>
         <v>84210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="88">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="88">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="88">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="73">
         <f>SUM(G3:G5)</f>
         <v>99367.799999999988</v>
       </c>
@@ -10880,6 +10990,123 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" customHeight="1">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47">
+        <v>704681</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31">
+        <v>15000</v>
+      </c>
+      <c r="F2" s="31">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="75">
+        <f>SUM(F2)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="75">
+        <f>F3*9%</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="75">
+        <f>F3*9%</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="75">
+        <f>SUM(F3:F5)</f>
+        <v>17700</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10940,48 +11167,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -11091,56 +11318,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -11250,56 +11477,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -11432,56 +11659,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="49" activeTab="54"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="49" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,7 @@
     <sheet name="Putz 403" sheetId="53" r:id="rId53"/>
     <sheet name="Putz 404 APS" sheetId="54" r:id="rId54"/>
     <sheet name="Putz 405" sheetId="55" r:id="rId55"/>
+    <sheet name="Putz 406" sheetId="56" r:id="rId56"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="177">
   <si>
     <t>Sr. No</t>
   </si>
@@ -598,6 +599,12 @@
   </si>
   <si>
     <t>151412764 (18-12-2023) 151415265 (26-12-2023)</t>
+  </si>
+  <si>
+    <t>716334</t>
+  </si>
+  <si>
+    <t>Bearing f. Take up Housing UCT 215</t>
   </si>
 </sst>
 </file>
@@ -786,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,6 +1014,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,56 +1490,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1661,56 +1674,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1794,56 +1807,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1953,56 +1966,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2087,56 +2100,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2293,56 +2306,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2427,56 +2440,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2584,56 +2597,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2813,56 +2826,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3118,56 +3131,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3323,56 +3336,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3575,56 +3588,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3758,56 +3771,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4037,56 +4050,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4243,56 +4256,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4376,56 +4389,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4510,56 +4523,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4669,56 +4682,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4804,56 +4817,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5058,56 +5071,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5238,56 +5251,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5418,56 +5431,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5551,56 +5564,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5683,56 +5696,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5816,56 +5829,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5974,56 +5987,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6064,12 +6077,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6270,12 +6283,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6289,12 +6302,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6567,12 +6580,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6594,12 +6607,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6626,36 +6639,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6791,56 +6804,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6882,12 +6895,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7088,12 +7101,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7107,12 +7120,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7385,24 +7398,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7646,56 +7659,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7922,56 +7935,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8101,56 +8114,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8258,56 +8271,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8538,56 +8551,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8661,36 +8674,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8770,56 +8783,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8889,36 +8902,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8984,48 +8997,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9174,48 +9187,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9298,56 +9311,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9430,56 +9443,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9546,48 +9559,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9669,56 +9682,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9790,48 +9803,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9937,56 +9950,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -10108,12 +10121,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10132,12 +10145,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10148,48 +10161,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10368,48 +10381,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10529,72 +10542,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10796,56 +10809,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="72">
         <f>SUM(G2:G7)</f>
         <v>442305</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="72">
         <f>SUM(G8:G10)</f>
         <v>521919.9</v>
@@ -10867,7 +10880,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10929,56 +10942,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="73">
         <f>SUM(G2)</f>
         <v>84210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="73">
         <f>SUM(G3:G5)</f>
         <v>99367.799999999988</v>
@@ -10999,8 +11012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11050,52 +11063,52 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="75">
         <f>SUM(F2)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="75">
         <f>SUM(F3:F5)</f>
         <v>17700</v>
@@ -11107,6 +11120,232 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34.799999999999997" customHeight="1">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="31">
+        <v>50</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1908</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G6" si="0">E2*F2</f>
+        <v>95400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.4">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="31">
+        <v>10</v>
+      </c>
+      <c r="F3" s="31">
+        <v>4995</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>49950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.4">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="5">
+        <v>616039</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>6521</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39.6">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="31">
+        <v>16</v>
+      </c>
+      <c r="F5" s="31">
+        <v>4048</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>64768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="5">
+        <v>716663</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="31">
+        <v>6</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1896</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>11376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="76">
+        <f>SUM(G2:G6)</f>
+        <v>228015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="76">
+        <f>G7*9%</f>
+        <v>20521.349999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="76">
+        <f>G7*9%</f>
+        <v>20521.349999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="76">
+        <f>SUM(G7:G9)</f>
+        <v>269057.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11167,48 +11406,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -11318,56 +11557,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -11477,56 +11716,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -11659,56 +11898,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -8949,10 +8949,13 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9140,7 +9143,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9385,7 +9388,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9625,7 +9628,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10021,7 +10024,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10880,7 +10883,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11130,7 +11133,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11236,7 +11239,7 @@
         <v>6521</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.6">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="31">
         <v>4</v>
       </c>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="49" activeTab="55"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,7 @@
     <sheet name="Putz 404 APS" sheetId="54" r:id="rId54"/>
     <sheet name="Putz 405" sheetId="55" r:id="rId55"/>
     <sheet name="Putz 406" sheetId="56" r:id="rId56"/>
+    <sheet name="Putz 407" sheetId="57" r:id="rId57"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="177">
   <si>
     <t>Sr. No</t>
   </si>
@@ -793,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1020,6 +1021,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1490,56 +1494,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1674,56 +1678,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1807,56 +1811,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1966,56 +1970,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2100,56 +2104,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2306,56 +2310,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2440,56 +2444,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2597,56 +2601,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2826,56 +2830,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3131,56 +3135,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3336,56 +3340,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3588,56 +3592,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3771,56 +3775,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4050,56 +4054,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4256,56 +4260,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4389,56 +4393,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4523,56 +4527,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4682,56 +4686,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4817,56 +4821,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5071,56 +5075,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5251,56 +5255,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5431,56 +5435,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5564,56 +5568,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5696,56 +5700,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5829,56 +5833,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5987,56 +5991,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6077,12 +6081,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6283,12 +6287,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6302,12 +6306,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6580,12 +6584,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6607,12 +6611,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6639,36 +6643,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6804,56 +6808,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6895,12 +6899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7101,12 +7105,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7120,12 +7124,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7398,24 +7402,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7659,56 +7663,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7935,56 +7939,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8114,56 +8118,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8271,56 +8275,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8551,56 +8555,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8674,36 +8678,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8783,56 +8787,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8902,36 +8906,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -9000,48 +9004,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9190,48 +9194,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9314,56 +9318,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9446,56 +9450,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9562,48 +9566,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9685,56 +9689,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9806,48 +9810,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9953,56 +9957,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -10124,12 +10128,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10148,12 +10152,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10164,48 +10168,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10384,48 +10388,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10545,72 +10549,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10812,56 +10816,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="72">
         <f>SUM(G2:G7)</f>
         <v>442305</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="72">
         <f>SUM(G8:G10)</f>
         <v>521919.9</v>
@@ -10945,56 +10949,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="73">
         <f>SUM(G2)</f>
         <v>84210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="73">
         <f>SUM(G3:G5)</f>
         <v>99367.799999999988</v>
@@ -11066,52 +11070,52 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="75">
         <f>SUM(F2)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="75">
         <f>SUM(F3:F5)</f>
         <v>17700</v>
@@ -11132,8 +11136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11288,56 +11292,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="76">
         <f>SUM(G2:G6)</f>
         <v>228015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="76">
         <f>SUM(G7:G9)</f>
         <v>269057.7</v>
@@ -11349,6 +11353,134 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="8">
+        <v>662351</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="31">
+        <v>2</v>
+      </c>
+      <c r="F2" s="31">
+        <v>24050</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>48100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="78">
+        <f>SUM(G2)</f>
+        <v>48100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="78">
+        <f>G3*9%</f>
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="78">
+        <f>G3*9%</f>
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="78">
+        <f>SUM(G3:G5)</f>
+        <v>56758</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11409,48 +11541,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -11560,56 +11692,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -11719,56 +11851,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -11901,56 +12033,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="56"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="40" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -8958,8 +8958,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11362,8 +11362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11372,7 +11372,7 @@
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6">
+    <row r="2" spans="1:7" ht="26.4">
       <c r="A2" s="31">
         <v>1</v>
       </c>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="40" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,6 @@
     <sheet name="Putz 404 APS" sheetId="54" r:id="rId54"/>
     <sheet name="Putz 405" sheetId="55" r:id="rId55"/>
     <sheet name="Putz 406" sheetId="56" r:id="rId56"/>
-    <sheet name="Putz 407" sheetId="57" r:id="rId57"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -75,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="177">
   <si>
     <t>Sr. No</t>
   </si>
@@ -794,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,9 +1020,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1494,56 +1490,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1678,56 +1674,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1811,56 +1807,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1970,56 +1966,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2104,56 +2100,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2310,56 +2306,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2444,56 +2440,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2601,56 +2597,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2830,56 +2826,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3135,56 +3131,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3340,56 +3336,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3592,56 +3588,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3775,56 +3771,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4054,56 +4050,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4260,56 +4256,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4393,56 +4389,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4527,56 +4523,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4686,56 +4682,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4821,56 +4817,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5075,56 +5071,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5255,56 +5251,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5435,56 +5431,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5568,56 +5564,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5700,56 +5696,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5833,56 +5829,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5991,56 +5987,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6081,12 +6077,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6287,12 +6283,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6306,12 +6302,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6584,12 +6580,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6611,12 +6607,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6643,36 +6639,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6808,56 +6804,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6899,12 +6895,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7105,12 +7101,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7124,12 +7120,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7402,24 +7398,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7663,56 +7659,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7939,56 +7935,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8118,56 +8114,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8275,56 +8271,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8555,56 +8551,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8678,36 +8674,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8787,56 +8783,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8906,36 +8902,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8958,8 +8954,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9004,48 +9000,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9194,48 +9190,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9318,56 +9314,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9450,56 +9446,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9566,48 +9562,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9689,56 +9685,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9810,48 +9806,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9957,56 +9953,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -10128,12 +10124,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10152,12 +10148,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10168,48 +10164,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10388,48 +10384,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10549,72 +10545,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10816,56 +10812,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="72">
         <f>SUM(G2:G7)</f>
         <v>442305</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="72">
         <f>SUM(G8:G10)</f>
         <v>521919.9</v>
@@ -10949,56 +10945,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="73">
         <f>SUM(G2)</f>
         <v>84210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="73">
         <f>SUM(G3:G5)</f>
         <v>99367.799999999988</v>
@@ -11020,7 +11016,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11070,52 +11066,52 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="75">
         <f>SUM(F2)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="75">
         <f>SUM(F3:F5)</f>
         <v>17700</v>
@@ -11136,8 +11132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11292,56 +11288,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="76">
         <f>SUM(G2:G6)</f>
         <v>228015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="76">
         <f>SUM(G7:G9)</f>
         <v>269057.7</v>
@@ -11353,134 +11349,6 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.8">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.4">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="8">
-        <v>662351</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="31">
-        <v>2</v>
-      </c>
-      <c r="F2" s="31">
-        <v>24050</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2" si="0">E2*F2</f>
-        <v>48100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="78">
-        <f>SUM(G2)</f>
-        <v>48100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="78">
-        <f>G3*9%</f>
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="78">
-        <f>G3*9%</f>
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="78">
-        <f>SUM(G3:G5)</f>
-        <v>56758</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11541,48 +11409,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -11692,56 +11560,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -11851,56 +11719,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -12033,56 +11901,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -11133,7 +11133,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="55"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,7 @@
     <sheet name="Putz 404 APS" sheetId="54" r:id="rId54"/>
     <sheet name="Putz 405" sheetId="55" r:id="rId55"/>
     <sheet name="Putz 406" sheetId="56" r:id="rId56"/>
+    <sheet name="Putz 407" sheetId="57" r:id="rId57"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="179">
   <si>
     <t>Sr. No</t>
   </si>
@@ -605,6 +606,12 @@
   </si>
   <si>
     <t>Bearing f. Take up Housing UCT 215</t>
+  </si>
+  <si>
+    <t>151429605 (31-01-2024)</t>
+  </si>
+  <si>
+    <t>151415265 (26-12-2023) 151429605 (31-01-2024)</t>
   </si>
 </sst>
 </file>
@@ -793,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1022,6 +1029,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,6 +1078,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1490,56 +1503,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1674,56 +1687,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1807,56 +1820,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1966,56 +1979,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2100,56 +2113,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2306,56 +2319,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2440,56 +2453,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2597,56 +2610,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2826,56 +2839,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3131,56 +3144,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3336,56 +3349,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3588,56 +3601,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3771,56 +3784,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4050,56 +4063,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4256,56 +4269,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4389,56 +4402,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4523,56 +4536,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4682,56 +4695,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4817,56 +4830,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5071,56 +5084,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5251,56 +5264,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5431,56 +5444,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5564,56 +5577,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5696,56 +5709,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5829,56 +5842,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5987,56 +6000,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6077,12 +6090,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6283,12 +6296,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6302,12 +6315,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6580,12 +6593,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6607,12 +6620,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6639,36 +6652,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6804,56 +6817,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6895,12 +6908,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7101,12 +7114,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7120,12 +7133,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7398,24 +7411,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7659,56 +7672,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7935,56 +7948,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8114,56 +8127,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8271,56 +8284,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8551,56 +8564,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8674,36 +8687,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8783,56 +8796,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8902,36 +8915,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -9000,48 +9013,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9190,48 +9203,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9314,56 +9327,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9446,56 +9459,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9562,48 +9575,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9685,56 +9698,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9806,48 +9819,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9953,56 +9966,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -10124,12 +10137,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10148,12 +10161,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10164,48 +10177,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10384,48 +10397,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10545,72 +10558,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10812,56 +10825,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="72">
         <f>SUM(G2:G7)</f>
         <v>442305</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="72">
         <f>SUM(G8:G10)</f>
         <v>521919.9</v>
@@ -10945,56 +10958,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="73">
         <f>SUM(G2)</f>
         <v>84210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="73">
         <f>SUM(G3:G5)</f>
         <v>99367.799999999988</v>
@@ -11066,52 +11079,52 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="75">
         <f>SUM(F2)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="75">
         <f>SUM(F3:F5)</f>
         <v>17700</v>
@@ -11132,8 +11145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11288,56 +11301,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="76">
         <f>SUM(G2:G6)</f>
         <v>228015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="76">
         <f>SUM(G7:G9)</f>
         <v>269057.7</v>
@@ -11349,6 +11362,255 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" customHeight="1">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="31">
+        <v>10</v>
+      </c>
+      <c r="F2" s="31">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G7" si="0">E2*F2</f>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="31">
+        <v>10</v>
+      </c>
+      <c r="F3" s="31">
+        <v>4048</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>40480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="8">
+        <v>662351</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="31">
+        <v>4</v>
+      </c>
+      <c r="F4" s="31">
+        <v>24050</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>96200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.4" customHeight="1">
+      <c r="A5" s="95">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="9">
+        <v>663092</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="95">
+        <v>5</v>
+      </c>
+      <c r="F5" s="31">
+        <v>5130</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.4" customHeight="1">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="31">
+        <v>30</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1908</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>57240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.4" customHeight="1">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="31">
+        <v>30</v>
+      </c>
+      <c r="F7" s="31">
+        <v>565</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="78">
+        <f>SUM(G2:G7)</f>
+        <v>292660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="78">
+        <f>G8*9%</f>
+        <v>26339.399999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="78">
+        <f>G8*9%</f>
+        <v>26339.399999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="78">
+        <f>SUM(G8:G10)</f>
+        <v>345338.80000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11409,48 +11671,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -11560,56 +11822,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -11719,56 +11981,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -11901,56 +12163,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="56"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -1032,6 +1032,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,9 +1081,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,56 +1503,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1687,56 +1687,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1820,56 +1820,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1979,56 +1979,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2113,56 +2113,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2319,56 +2319,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2453,56 +2453,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2610,56 +2610,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2839,56 +2839,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3144,56 +3144,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3349,56 +3349,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3601,56 +3601,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3784,56 +3784,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4063,56 +4063,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4269,56 +4269,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4402,56 +4402,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4536,56 +4536,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4695,56 +4695,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4830,56 +4830,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5084,56 +5084,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5264,56 +5264,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5444,56 +5444,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5577,56 +5577,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5709,56 +5709,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5842,56 +5842,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -6000,56 +6000,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6090,12 +6090,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6296,12 +6296,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6315,12 +6315,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6593,12 +6593,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6620,12 +6620,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6652,36 +6652,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6817,56 +6817,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6908,12 +6908,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7114,12 +7114,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7133,12 +7133,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7411,24 +7411,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7672,56 +7672,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7948,56 +7948,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8127,56 +8127,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8284,56 +8284,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8564,56 +8564,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8687,36 +8687,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8796,56 +8796,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8915,36 +8915,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -9013,48 +9013,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9203,48 +9203,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9327,56 +9327,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9459,56 +9459,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9575,48 +9575,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9698,56 +9698,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9819,48 +9819,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9966,56 +9966,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -10137,12 +10137,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10161,12 +10161,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10177,48 +10177,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10397,48 +10397,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10558,72 +10558,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10644,6 +10644,9 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10825,56 +10828,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="72">
         <f>SUM(G2:G7)</f>
         <v>442305</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="72">
         <f>SUM(G8:G10)</f>
         <v>521919.9</v>
@@ -10893,6 +10896,9 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10958,56 +10964,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="73">
         <f>SUM(G2)</f>
         <v>84210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="73">
         <f>SUM(G3:G5)</f>
         <v>99367.799999999988</v>
@@ -11026,6 +11032,9 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11079,52 +11088,52 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="75">
         <f>SUM(F2)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="75">
         <f>SUM(F3:F5)</f>
         <v>17700</v>
@@ -11143,10 +11152,13 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11301,56 +11313,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="76">
         <f>SUM(G2:G6)</f>
         <v>228015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="76">
         <f>SUM(G7:G9)</f>
         <v>269057.7</v>
@@ -11371,7 +11383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -11478,7 +11490,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.4" customHeight="1">
-      <c r="A5" s="95">
+      <c r="A5" s="79">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -11490,7 +11502,7 @@
       <c r="D5" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="79">
         <v>5</v>
       </c>
       <c r="F5" s="31">
@@ -11550,56 +11562,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="78">
         <f>SUM(G2:G7)</f>
         <v>292660</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="78">
         <f>G8*9%</f>
         <v>26339.399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="78">
         <f>G8*9%</f>
         <v>26339.399999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="78">
         <f>SUM(G8:G10)</f>
         <v>345338.80000000005</v>
@@ -11671,48 +11683,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -11822,56 +11834,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -11981,56 +11993,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -12163,56 +12175,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="55"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -10459,8 +10459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11157,7 +11157,7 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="51"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -10459,7 +10459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -11381,10 +11381,13 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="56"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,7 @@
     <sheet name="Putz 405" sheetId="55" r:id="rId55"/>
     <sheet name="Putz 406" sheetId="56" r:id="rId56"/>
     <sheet name="Putz 407" sheetId="57" r:id="rId57"/>
+    <sheet name="Putz 408" sheetId="58" r:id="rId58"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="181">
   <si>
     <t>Sr. No</t>
   </si>
@@ -612,6 +613,12 @@
   </si>
   <si>
     <t>151415265 (26-12-2023) 151429605 (31-01-2024)</t>
+  </si>
+  <si>
+    <t>151442906 (28-02-2024)</t>
+  </si>
+  <si>
+    <t>Cement dust collector bellow dia245mm</t>
   </si>
 </sst>
 </file>
@@ -800,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1033,6 +1040,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,56 +1513,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1687,56 +1697,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1820,56 +1830,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1979,56 +1989,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2113,56 +2123,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2319,56 +2329,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2453,56 +2463,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2610,56 +2620,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2839,56 +2849,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3144,56 +3154,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3349,56 +3359,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3601,56 +3611,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3784,56 +3794,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4063,56 +4073,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4269,56 +4279,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4402,56 +4412,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4536,56 +4546,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4695,56 +4705,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4830,56 +4840,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5084,56 +5094,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5264,56 +5274,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5444,56 +5454,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5577,56 +5587,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5709,56 +5719,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5842,56 +5852,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -6000,56 +6010,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6090,12 +6100,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6296,12 +6306,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6315,12 +6325,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6593,12 +6603,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6620,12 +6630,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6652,36 +6662,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6817,56 +6827,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6908,12 +6918,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7114,12 +7124,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7133,12 +7143,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7411,24 +7421,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7672,56 +7682,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7948,56 +7958,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8127,56 +8137,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8284,56 +8294,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8564,56 +8574,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8687,36 +8697,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8796,56 +8806,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8915,36 +8925,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -9013,48 +9023,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9153,10 +9163,13 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9203,48 +9216,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9327,56 +9340,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9459,56 +9472,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9575,48 +9588,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9698,56 +9711,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9819,48 +9832,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9966,56 +9979,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -10137,12 +10150,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10161,12 +10174,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10177,48 +10190,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10397,48 +10410,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10558,72 +10571,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10828,56 +10841,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="72">
         <f>SUM(G2:G7)</f>
         <v>442305</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="72">
         <f>SUM(G8:G10)</f>
         <v>521919.9</v>
@@ -10964,56 +10977,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="73">
         <f>SUM(G2)</f>
         <v>84210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="73">
         <f>SUM(G3:G5)</f>
         <v>99367.799999999988</v>
@@ -11088,52 +11101,52 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="75">
         <f>SUM(F2)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="75">
         <f>SUM(F3:F5)</f>
         <v>17700</v>
@@ -11158,7 +11171,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11313,56 +11326,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="76">
         <f>SUM(G2:G6)</f>
         <v>228015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="76">
         <f>SUM(G7:G9)</f>
         <v>269057.7</v>
@@ -11386,7 +11399,7 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -11565,56 +11578,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="78">
         <f>SUM(G2:G7)</f>
         <v>292660</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="78">
         <f>G8*9%</f>
         <v>26339.399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="78">
         <f>G8*9%</f>
         <v>26339.399999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="78">
         <f>SUM(G8:G10)</f>
         <v>345338.80000000005</v>
@@ -11626,6 +11639,183 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.4">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="5">
+        <v>616039</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="31">
+        <v>11</v>
+      </c>
+      <c r="F2" s="31">
+        <v>6521</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
+        <v>71731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.4">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="4">
+        <v>635656</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="31">
+        <v>15</v>
+      </c>
+      <c r="F3" s="31">
+        <v>2818</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>42270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.4">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="77">
+        <v>725828</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="31">
+        <v>10</v>
+      </c>
+      <c r="F4" s="31">
+        <v>2900</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="80">
+        <f>SUM(G2:G4)</f>
+        <v>143001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="80">
+        <f>G5*9%</f>
+        <v>12870.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="80">
+        <f>G5*9%</f>
+        <v>12870.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="80">
+        <f>SUM(G5:G7)</f>
+        <v>168741.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11686,48 +11876,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -11837,56 +12027,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -11996,56 +12186,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -12178,56 +12368,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>
